--- a/data/dataset_rag_zurich.xlsx
+++ b/data/dataset_rag_zurich.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maicolrodrigues/Documents/Test/Insurapolis/chatbot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A539515-B543-B44A-B640-73613F0FC979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0976D99-BC21-7F44-BDD5-D0524D412285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50040" yWindow="-9420" windowWidth="47140" windowHeight="26400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,65 +387,6 @@
   </si>
   <si>
     <t>Art. 402, 404</t>
-  </si>
-  <si>
-    <t>Art.403 Supervol
-403.1 Étendue de l’assurance
-Si plusieurs lieux sont assurés dans la même police, la couverture d’assurance s’applique à toutes les choses assurées de ces lieux.
-403.1.1 Vol simple à l’extérieur
-Les choses assurées dans l’assurance inventaire du ménage sont assurées jusqu’à la somme d’assurance convenue au premier risque contre le vol simple dans l’assurance externe selon l’art.102.2.2.
-La couverture vol simple à l'extérieur vient se rajouter à la couverture vol simple de l'article 110 et enlève la restriction qui ne couvre pas le vol simple à l'extérieur. De ce fait, avec cette couverture complémentaire le vol simple est couvert à l'extérieur - par exemple dans la rue, dans un bar, dans un train.
-Restriction de l’étendue de l’assurance
-Ne sont pas assurés les valeurs pécuniaires et les dommages résultant de la perte ou de l’égarement de choses.
-403.2 Franchise
-La franchise est de CHF 200 par événement, dans la mesure où la police ne prévoit pas d’autre franchise.
-113.2.5 Somme d’assurance pour les objets de 
-remplacement en cas de retard des bagages
-Les frais d’achat d’objets de remplacement dans le cas de la livraison en retard des bagages confiés à un transpor_x0002_teur sont couverts si l’assurance complémentaire supervol est souscrite. La limitation des prestations correspondante est mentionnée à l’art.403.1.2 b).
-403.1.2 Détérioration et pertes d’objets en voyage
-La somme d’assurance convenue au premier risque en cas de supervol est doublée et l’étendue de l’assurance suivante s’applique en plus de la couverture selon l’art.403.1.1 (avec somme d’assurance doublée également) pour l’inventaire du ménage assuré emporté lors d’un voyage si:
-• la destination du voyage d’une personne assurée se situe à plus de 50km à vol d’oiseau de l’adresse du domicile assuré (inventaire du ménage au domicile)
-ou • la personne assurée passe au moins une nuit à l’extérieur de ce domicile.
-La couverture d’assurance est valable dans le monde entier, elle commence lors du départ en voyage après avoir quitté l’appartement et prend fin lors du retour en pénétrant dans l’appartement.
-a) Événements assurés
-Sont assurés la perte ainsi que les détériorations ou les destructions survenant subitement et de façon imprévue, dues à l’action d’une force extérieure violente.
-b) Retard des bagages
-Sont assurés les frais d’acquisition absolument nécessaire d’objets de rechange jusqu’à maximum 30% de la somme d’assurance en cas de retard de livraison des bagages 
-confiés pour être acheminés.
-c) Restriction de l’étendue de l’assurance 
-Sont exclus de l’assurance 
-• les valeurs pécuniaires;
-• les dommages qui sont assurés dans le cadre d’événe_x0002_ments incendie, dommages naturels, vol, dégâts d’eau ou bris de glace;
-• le vol simple à l’extérieur (assuré selon l’art.403.1.1);
-• les dommages causés par des rongeurs et des vermines;
-• appareils de sport, vélos et cyclomoteurs, avec tous leurs accessoires, utilisés en compétition;
-• les appareils de sport dotés de leur propre moteur (à l’exception des cyclomoteurs pour lesquels aucune assurance responsabilité civile n’est légalement pres_x0002_crite);
-• les dommages causés par la pluie, l’eau de la fonte de neige ou de glace qui s’est infiltrée par des lucarnes, des fenêtres et portes ouvertes ou des ouvertures dans le toit, par les murs de nouvelles constructions ou lors de travaux de transformation ou autres travaux dans le bâtiment;
-• les données se trouvant sur des choses assurées comme les photos, les fichiers musicaux ou les logiciels d’applications, par exemple;
-• les dommages causés par des animaux domestiques par rayures, morsures et sécrétions;
-• les blessures ou la mort d’animaux;
-• la fraude, l’abus de confiance ou les détournements;
-• la réalisation forcée en matière de poursuite ou de faillite, ou la confiscation par des organes publics.
-403.2 Franchise
-La franchise est de CHF 200 par événement, dans la mesure où la police ne prévoit pas d’autre franchise.
-Art. 113 Prestations
-113.1 Valeur de remplacement et calcul du dommage
-Pour l’inventaire du ménage, les effets d’hôtes et les objets confiés, le dommage est calculé à partir du montant du remplacement à la valeur à neuf au moment du cas de sinistre (= valeur de remplacement), déduction faite de la valeur des restes. Une valeur d’amateur personnelle n’est pas prise en considération. En cas de dommage partiel, le dommage est calculé à partir des frais de réparation à  concurrence de la valeur de remplacement.
-113.2 Sommes d’assurance et limitations des prestations
-La somme d’assurance constitue la limite d’indemnisation, dans la mesure où certaines limitations de prestations particulières ne sont pas applicables. Pour les dommages relevant du champ d’application de l’assurance des dommages naturels légale, les dispositions légales mentionnées à l’art. 17 s’appliquent.
-Art.404 Perte de clés
-Si le vol simple à l’extérieur, le supervol ou All Risk ont été convenus, la perte de clés est également assurée.
-404.1 Étendue de l’assurance, prestations et franchise
-En cas de perte de clés ou de codes, de cartes de systèmes d’accès électroniques (badge) et d’objets similaires, les frais de modification ou de remplacement des serrures 
-(y compris les serrures provisoires) et des clés correspon_x0002_dantes sur les lieux désignés dans la police sont assurés à concurrence de 50% de la somme d’assurance convenue 
-pour le vol simple à l’extérieur, au maximum toutefois à CHF 4’000. De plus, les dispositions suivantes s’appliquent:
-• le doublement de la somme d’assurance en cas de supervol n’est pas pris en compte,
-• pour All Risk, les prestations sont assurées jusqu’à CHF 4’000.
-Si les frais des serrures de fortune excèdent la somme d’assurance, l’assurance complémentaire «Home Assis_x0002_tance» peut intervenir en complément si elle a été incluse dans le contrat.
-La perte de clés de coffres-forts loués est également assurée dans le même cadre.
-La franchise de l’assurance vol ou All Risk s’applique.
-404.2 Restrictions de l’étendue de l’assurance
-Ne sont pas assurés, les clés, codes, badges etc.des locaux professionnels et des véhicules</t>
   </si>
   <si>
     <t>Art. 403, 404, 113</t>
@@ -1590,6 +1531,85 @@
 La franchise de l’assurance vol ou All Risk s’applique.
 404.2 Restrictions de l’étendue de l’assurance
 Ne sont pas assurés, les clés, codes, badges etc.des locaux professionnels et des véhicules"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Art.403 Supervol
+403.1 Étendue de l’assurance
+Si plusieurs lieux sont assurés dans la même police, la couverture d’assurance s’applique à toutes les choses assurées de ces lieux.
+403.1.1 Vol simple à l’extérieur
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve">La couverture supervol inclut la couverture du vol à l'extérieur qui signifie en dehors du domicile.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Les choses assurées dans l’assurance inventaire du ménage sont assurées jusqu’à la somme d’assurance convenue au premier risque contre le vol simple dans l’assurance externe selon l’art.102.2.2.
+La couverture vol simple à l'extérieur vient se rajouter à la couverture vol simple de l'article 110 et enlève la restriction qui ne couvre pas le vol simple à l'extérieur. De ce fait, avec cette couverture complémentaire le vol simple est couvert à l'extérieur - par exemple dans la rue, dans un bar, dans un train.
+Restriction de l’étendue de l’assurance
+Ne sont pas assurés les valeurs pécuniaires et les dommages résultant de la perte ou de l’égarement de choses.
+403.2 Franchise
+La franchise est de CHF 200 par événement, dans la mesure où la police ne prévoit pas d’autre franchise.
+113.2.5 Somme d’assurance pour les objets de 
+remplacement en cas de retard des bagages
+Les frais d’achat d’objets de remplacement dans le cas de la livraison en retard des bagages confiés à un transpor_x0002_teur sont couverts si l’assurance complémentaire supervol est souscrite. La limitation des prestations correspondante est mentionnée à l’art.403.1.2 b).
+403.1.2 Détérioration et pertes d’objets en voyage
+La somme d’assurance convenue au premier risque en cas de supervol est doublée et l’étendue de l’assurance suivante s’applique en plus de la couverture selon l’art.403.1.1 (avec somme d’assurance doublée également) pour l’inventaire du ménage assuré emporté lors d’un voyage si:
+• la destination du voyage d’une personne assurée se situe à plus de 50km à vol d’oiseau de l’adresse du domicile assuré (inventaire du ménage au domicile)
+ou • la personne assurée passe au moins une nuit à l’extérieur de ce domicile.
+La couverture d’assurance est valable dans le monde entier, elle commence lors du départ en voyage après avoir quitté l’appartement et prend fin lors du retour en pénétrant dans l’appartement.
+a) Événements assurés
+Sont assurés la perte ainsi que les détériorations ou les destructions survenant subitement et de façon imprévue, dues à l’action d’une force extérieure violente.
+b) Retard des bagages
+Sont assurés les frais d’acquisition absolument nécessaire d’objets de rechange jusqu’à maximum 30% de la somme d’assurance en cas de retard de livraison des bagages 
+confiés pour être acheminés.
+c) Restriction de l’étendue de l’assurance 
+Sont exclus de l’assurance 
+• les valeurs pécuniaires;
+• les dommages qui sont assurés dans le cadre d’événe_x0002_ments incendie, dommages naturels, vol, dégâts d’eau ou bris de glace;
+• le vol simple à l’extérieur (assuré selon l’art.403.1.1);
+• les dommages causés par des rongeurs et des vermines;
+• appareils de sport, vélos et cyclomoteurs, avec tous leurs accessoires, utilisés en compétition;
+• les appareils de sport dotés de leur propre moteur (à l’exception des cyclomoteurs pour lesquels aucune assurance responsabilité civile n’est légalement pres_x0002_crite);
+• les dommages causés par la pluie, l’eau de la fonte de neige ou de glace qui s’est infiltrée par des lucarnes, des fenêtres et portes ouvertes ou des ouvertures dans le toit, par les murs de nouvelles constructions ou lors de travaux de transformation ou autres travaux dans le bâtiment;
+• les données se trouvant sur des choses assurées comme les photos, les fichiers musicaux ou les logiciels d’applications, par exemple;
+• les dommages causés par des animaux domestiques par rayures, morsures et sécrétions;
+• les blessures ou la mort d’animaux;
+• la fraude, l’abus de confiance ou les détournements;
+• la réalisation forcée en matière de poursuite ou de faillite, ou la confiscation par des organes publics.
+403.2 Franchise
+La franchise est de CHF 200 par événement, dans la mesure où la police ne prévoit pas d’autre franchise.
+Art. 113 Prestations
+113.1 Valeur de remplacement et calcul du dommage
+Pour l’inventaire du ménage, les effets d’hôtes et les objets confiés, le dommage est calculé à partir du montant du remplacement à la valeur à neuf au moment du cas de sinistre (= valeur de remplacement), déduction faite de la valeur des restes. Une valeur d’amateur personnelle n’est pas prise en considération. En cas de dommage partiel, le dommage est calculé à partir des frais de réparation à  concurrence de la valeur de remplacement.
+113.2 Sommes d’assurance et limitations des prestations
+La somme d’assurance constitue la limite d’indemnisation, dans la mesure où certaines limitations de prestations particulières ne sont pas applicables. Pour les dommages relevant du champ d’application de l’assurance des dommages naturels légale, les dispositions légales mentionnées à l’art. 17 s’appliquent.
+Art.404 Perte de clés
+Si le vol simple à l’extérieur, le supervol ou All Risk ont été convenus, la perte de clés est également assurée.
+404.1 Étendue de l’assurance, prestations et franchise
+En cas de perte de clés ou de codes, de cartes de systèmes d’accès électroniques (badge) et d’objets similaires, les frais de modification ou de remplacement des serrures 
+(y compris les serrures provisoires) et des clés correspon_x0002_dantes sur les lieux désignés dans la police sont assurés à concurrence de 50% de la somme d’assurance convenue 
+pour le vol simple à l’extérieur, au maximum toutefois à CHF 4’000. De plus, les dispositions suivantes s’appliquent:
+• le doublement de la somme d’assurance en cas de supervol n’est pas pris en compte,
+• pour All Risk, les prestations sont assurées jusqu’à CHF 4’000.
+Si les frais des serrures de fortune excèdent la somme d’assurance, l’assurance complémentaire «Home Assis_x0002_tance» peut intervenir en complément si elle a été incluse dans le contrat.
+La perte de clés de coffres-forts loués est également assurée dans le même cadre.
+La franchise de l’assurance vol ou All Risk s’applique.
+404.2 Restrictions de l’étendue de l’assurance
+Ne sont pas assurés, les clés, codes, badges etc.des locaux professionnels et des véhicules</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2031,7 +2051,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2220,7 +2240,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -2289,7 +2309,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>8</v>
@@ -2358,7 +2378,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>8</v>
@@ -2381,7 +2401,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
@@ -2404,7 +2424,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
@@ -2427,7 +2447,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>8</v>
@@ -2450,7 +2470,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="7">
@@ -2487,7 +2507,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>35</v>
@@ -2499,7 +2519,7 @@
         <v>22</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>10</v>
@@ -2510,7 +2530,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>35</v>
@@ -2522,7 +2542,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>10</v>
@@ -2533,7 +2553,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>35</v>
@@ -2543,7 +2563,7 @@
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>10</v>
@@ -2554,7 +2574,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>35</v>
@@ -2564,7 +2584,7 @@
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>10</v>
@@ -2575,7 +2595,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>35</v>
@@ -2585,7 +2605,7 @@
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>10</v>
@@ -2596,7 +2616,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>35</v>
@@ -2606,7 +2626,7 @@
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>10</v>
@@ -2617,7 +2637,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>35</v>
@@ -2627,7 +2647,7 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>10</v>
@@ -2638,7 +2658,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>35</v>
@@ -2648,7 +2668,7 @@
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>10</v>
@@ -2659,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>35</v>
@@ -2669,7 +2689,7 @@
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>10</v>
@@ -2680,7 +2700,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>35</v>
@@ -2690,7 +2710,7 @@
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>10</v>
@@ -2701,7 +2721,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>35</v>
@@ -2711,7 +2731,7 @@
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>10</v>
@@ -2722,7 +2742,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>35</v>
@@ -2732,7 +2752,7 @@
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>10</v>
@@ -2743,7 +2763,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>35</v>
@@ -2753,7 +2773,7 @@
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>10</v>
@@ -2764,7 +2784,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>35</v>
@@ -2774,7 +2794,7 @@
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>10</v>
@@ -2782,5 +2802,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/dataset_rag_zurich.xlsx
+++ b/data/dataset_rag_zurich.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maicolrodrigues/Documents/Test/Insurapolis/chatbot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0976D99-BC21-7F44-BDD5-D0524D412285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5202E0B4-067F-0549-905E-F57887CA6377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47600" yWindow="-9200" windowWidth="41860" windowHeight="25280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="109">
   <si>
     <t>index</t>
   </si>
@@ -1611,12 +1624,746 @@
 Ne sont pas assurés, les clés, codes, badges etc.des locaux professionnels et des véhicules</t>
     </r>
   </si>
+  <si>
+    <t>Art. 901</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Art. 902</t>
+  </si>
+  <si>
+    <t>Art. 903</t>
+  </si>
+  <si>
+    <t>Art. 904</t>
+  </si>
+  <si>
+    <t>Art. 901
+Cyber – Safe Shop&amp;Pay
+L’étendue de l’assurance à hauteur de la somme d’assurance au premier risque est la suivante :
+901.1 Personnes assurées
+Sont assurés le preneur d’assurance et toutes les personnes vivant en ménage commun avec lui ou regagnant régulièrement son ménage la semaine ou le week-end.
+901.2 Dommages en lien avec des commandes passées sur Internet
+Sont assurés lors de commandes sur Internet :
+- la disparition pendant le transport ;
+- l’endommagement pendant le transport ;
+- le défaut de livraison et la livraison erronée.
+901.2.1 Choses assurées
+Sont assurés les biens meubles destinés à l’usage privé qui sont achetés par les personnes assurées et dont les destinataires sont les personnes assurées.
+901.2.2 Limitation des prestations
+Pour les bijoux, les montres-bracelets et montres de poche, la prestation est limitée à 10 % de la somme d’assurance pour la couverture « Cyber – Safe Shop&amp;Pay ».
+901.2.3 Choses non assurées
+Ne sont pas assurés :
+- les véhicules à moteur (hormis les cyclomoteurs), remorques, caravanes, mobil-homes, y compris leurs accessoires ;
+- les bateaux pour lesquels une assurance responsabilité civile est légalement prescrite, ainsi que tous les véhicules nautiques équipés d’un moteur et tous leurs accessoires ;
+- les aéronefs qui doivent être inscrits au registre matricule des aéronefs ;
+- les valeurs pécuniaires, c.-à-d. l’argent, les crypto-monnaies, les titres, les livrets d’épargne, les métaux précieux (sous forme de réserves, de lingots ou de marchandises de commerce), les abonnements non personnels, les billets et les bons non personnels, les pièces de monnaie et les médailles, les pierres précieuses et perles non montées ;
+- les denrées alimentaires ainsi que les choses altérables et périssables par nature ;
+- les animaux et les plantes.
+901.2.4 Calcul du dommage
+a) Dommage total
+Le dommage causé aux choses assurées est calculé sur la base de leur valeur de remplacement au moment de la survenance du sinistre, en cas d’endommagement, déduction faite de la valeur des restes.
+b) Dommage partiel
+Si les choses endommagées peuvent être réparées, le dommage est calculé en tenant compte des frais de réparation ou des frais de remplacement partiel ainsi que d’une éventuelle moins-value résiduelle, mais s’élève au maximum au montant de la valeur de remplacement.
+c) Valeur de remplacement
+La valeur de remplacement est calculée en considérant le prix du marché d’un objet identique au moment du paiement et le prix d’achat payé, le montant le plus faible étant déterminant.
+901.3 Dommages consécutifs à des offres frauduleuses sur Internet
+Sont assurés les dommages financiers liés à des offres de réservation de locations et d’hébergements frauduleuses sur Internet. Celles-ci incluent par exemple la réservation d’une maison de vacances qui n’existe pas.
+901.3.1 Calcul du dommage
+Sont indemnisés les frais de réservation payés par les personnes assurées, déduction faite d’éventuels remboursements et autres indemnités.
+901.4 Dommages consécutifs à un accès abusif à des comptes
+Sont assurés les dommages financiers causés aux personnes assurées par un accès abusif de tiers à des comptes, dépôts et avoirs privés en Suisse et dans la Principauté de Liechtenstein ainsi qu’à des cartes de crédit. L’accès abusif doit provenir d’une obtention non autorisée de cartes personnelles, de données d’accès ou d’identification personnelles. En font partie, par exemple, les dommages financiers suite au phishing de données d’accès de systèmes de paiement d’e-banking et par téléphone mobile ainsi qu’au skimming de cartes de crédit.
+901.4.1 Restrictions de l’étendue de l’assurance
+Ne sont pas assurés :
+- les cartes et bons d’achat émis personnellement pour des personnes assurées par l’institut émetteur ;
+- les dommages causés par l’inscription physique des codes d’accès ou NIP de cartes de crédit, cartes bancaires et cartes de débit ;
+- les dommages qui sont la conséquence indirecte d’un accès abusif à des comptes, par exemple le manque à gagner ou des intérêts perdus ;
+- les dommages que la personne assurée doit supporter car :
+  a) elle a manqué à ses obligations d’aviser l’établissement financier tenant le compte, le partenaire contractuel gérant les cartes ou le prestataire d’autres systèmes de paiement (p.ex. déclaration immédiate après la découverte de la perte ou du vol) ;
+  b) elle a laissé passer le délai de vérification et de constatation d’un paiement non autorisé.
+901.4.2 Calcul du dommage
+Est assuré le dommage financier que la personne assurée doit supporter en vertu de dispositions légales ou contractuelles dans la mesure où l’établissement financier tenant le compte, le partenaire contractuel gérant les cartes ou le prestataire d’autres systèmes de paiement a refusé par écrit de rembourser tout ou partie du montant utilisé de façon abusive.
+901.5 Dommages consécutifs à l’utilisation abusive d’appareils de communication mobiles
+Sont assurés les frais supplémentaires engendrés par l’utilisation abusive (pour des communications, messages, volumes de données) d’appareils de communication mobiles d’une personne assurée.
+901.5.1 Restrictions de l’étendue de l’assurance
+Ne sont pas assurés :
+- les dommages qui sont la conséquence indirecte d’une utilisation abusive, comme par exemple le manque à gagner ou des intérêts perdus ;
+- les dommages que la personne assurée doit supporter en raison de son manquement à ses obligations d’aviser l’opérateur de réseau (p.ex. déclaration immédiate après la découverte de la perte ou du vol).
+901.5.2 Calcul du dommage
+Est assuré le dommage financier que la personne assurée doit supporter en vertu de dispositions légales ou contractuelles dans la mesure où l’opérateur de réseau (p.ex. Swisscom) a refusé par écrit de rembourser tout ou partie du montant utilisé de façon abusive.
+901.6 Frais de blocage et de remplacement de cartes
+Après un événement assuré selon l’art. 901.4 et l’art. 901.5 ou après une perte, les frais de blocage de cartes de crédit, de cartes de débit, de cartes clients, de cartes carburant et de cartes SIM, etc., ainsi que les frais de remplacement des cartes en résultant sont assurés.</t>
+  </si>
+  <si>
+    <t>Art. 902
+Cyber – Safe Surf
+902.1 Personnes assurées
+Sont assurés le preneur d’assurance et toutes les personnes vivant en ménage commun avec lui ou regagnant régulièrement son ménage la semaine ou le week-end.
+902.2 Choses assurées
+Sont assurés les appareils mobiles destinés à l’usage privé, qui appartiennent aux personnes assurées.
+902.3 Étendue de l’assurance
+Si les appareils assurés sont attaqués par un programme malveillant ou victimes d’une cyberattaque, Zurich prend en charge les frais suivants à concurrence de la somme d’assurance au premier risque indiquée dans la police pour au maximum deux événements par année civile :
+902.3.1 Élimination du programme malveillant
+L’élimination du programme malveillant est assurée. Sont également assurés les frais d’analyse de l’appareil, à condition qu’il s’agisse d’un événement assuré.
+902.3.2 Restauration du fonctionnement
+Sont assurées la réinstallation du système d’exploitation fixe et la restauration des applications et logiciels qui se trouvent dessus.
+902.3.3 Restauration des données
+Est assurée la restauration des données utilisées à titre privé provenant d’une sauvegarde. Sont également assurés les frais d’analyse nécessaires à cet effet, à condition qu’il s’agisse d’un événement assuré.
+902.4 Restrictions de l’étendue de l’assurance
+Ne sont pas assurés :
+- l’acquisition d’une nouvelle licence ;
+- les appareils qui fonctionnent avec une version d’un système d’exploitation fixe qui n’est plus mis à jour avec des updates ou des patches par son fabricant ;
+- la restauration de données illicites (p.ex. violations de droits d’auteur) ou dont le contenu relève du droit pénal ;
+- les véhicules à moteur, aéronefs et véhicules nautiques ;
+- les valeurs pécuniaires, crypto-monnaies, avoirs et bons ;
+- les dommages consécutifs à des délits et crimes ou leurs tentatives commis par les personnes assurées ;
+- les créances liées à des extorsions et chantages.</t>
+  </si>
+  <si>
+    <t>Art. 903
+Véhicules de location et de sharing
+903.1 Personnes assurées
+Sont assurés le preneur d’assurance et toutes les personnes vivant en ménage commun avec lui ou regagnant régulièrement son ménage la semaine ou le week-end.
+903.2 Véhicules assurés
+Sont assurés :
+- les véhicules à moteur, remorques, motocycles et bateaux de sociétés de location de véhicules qui sont loués ou conduits par des personnes assurées ;
+- les véhicules à moteur, remorques, motocycles et bateaux de sociétés de partage de véhicules qui sont empruntés ou conduits par des personnes assurées à titre payant. Sont également assurés les véhicules qui sont mis à disposition par une plateforme de partage de véhicules et empruntés ou conduits par des personnes assurées à titre payant.
+903.3 Véhicules non assurés
+Ne sont pas assurés :
+- les véhicules qui sont utilisés par des personnes assurées sans intermédiation directe d’un professionnel par des personnes privées ;
+- les véhicules utilisés par une personne assurée pour générer un revenu ;
+- les véhicules dont le détenteur ou le propriétaire est une personne assurée ;
+- les véhicules utilisés par les personnes assurées dans le cadre d’un « modèle d’abonnement ».
+903.4 Étendue de l’assurance
+Zurich prend en charge les frais suivants à hauteur de la somme d’assurance au premier risque indiquée dans la police :
+903.4.1 Franchise due conformément au contrat
+Est assurée la franchise due conformément au contrat.
+903.4.2 Réparations du véhicule dues conformément au contrat
+Sont assurés les frais dus contractuellement pour les dommages causés au véhicule assuré.
+903.4.3 Frais de dépannage et de remorquage
+Sont assurés les frais de dépannage et de remorquage facturés (frais de sauvetage compris).
+903.5 Restrictions de l’étendue de l’assurance
+Ne sont pas assurés :
+- les frais de nettoyage et de carburant ;
+- les dommages résultant de l’inobservation des dispositions contractuelles de l’entreprise de location ou de partage de véhicules ;
+- les dommages survenant alors que le véhicule est conduit par une personne qui ne possède pas de permis de conduire ou de permis d’élève conducteur exigé par la loi, n’est pas accompagné de la manière prescrite par la loi ou transporte des personnes sans autorisation, dans la mesure où les personnes assurées auraient pu avoir connaissance de ces faits ;
+- les dommages causés lors de trajets qui ne sont pas autorisés par les autorités ou par la loi ;
+- les dommages causés à l’occasion de la participation à des courses, à des rallyes et à d’autres compétitions semblables, y compris tout parcours sur les pistes principales et annexes des circuits de vitesse ;
+- les diminutions ou le refus de prestations de tiers en raison de l’origine fautive ou intentionnelle du dommage.
+903.6 Clause de subsidiarité
+En présence d’un droit à d’autres prestations (par exemple au titre d’un contrat d’assurance), la couverture d’assurance est limitée à la part des prestations qui dépasse celles de l’autre contrat.</t>
+  </si>
+  <si>
+    <t>Art. 904
+Home Assistance
+904.1 Lieu assuré
+La couverture d’assurance est valable aux lieux désignés dans la police sous Home Assistance.
+904.2 Locaux et personnes assurés
+Selon ce qui a été convenu, la variante suivante indiquée dans la police s’applique :
+a) Tous les locaux
+La couverture d’assurance est valable pour tous les locaux de tous les bâtiments et tous les ouvrages proprement dits qui se trouvent au lieu assuré. Les personnes assurées sont tous les habitants du lieu assuré.
+b) Locaux à usage propre
+La couverture d’assurance est valable pour les locaux utilisés personnellement ou en commun par les personnes assurées dans tous les bâtiments et pour les ouvrages proprement dits utilisés personnellement ou en commun qui se trouvent au lieu assuré. Les personnes assurées sont le preneur d’assurance et toutes les personnes vivant en ménage commun avec lui ou regagnant régulièrement son ménage la semaine ou le week-end.
+904.3 Étendue de l’assurance
+Les prestations suivantes sont assurées au premier risque :
+904.3.1 Situation d’urgence
+En cas de situation d’urgence, Zurich organise les professionnels pour prendre les mesures d’urgence nécessaires. Est réputée situation d’urgence la survenance d’un événement soudain qui, sans mesure immédiate, provoque un dommage ou augmente un dommage déjà survenu. Ce dommage est causé aux locaux assurés cités à l’art. 904.2 let. a) ou let. b) ou au mobilier du ménage se trouvant au lieu assuré. Sont assurés les frais de l’intervention unique du professionnel sollicité dans la limite de CHF 1’000 par événement. Les pièces de rechange nécessaires ne sont pas assurées.
+904.3.2 Dépannage serrurerie
+S’il est impossible d’ouvrir des portes et portails des locaux assurés (p.ex. perte de clés, clé cassée, code d’accès oublié, serrure défectueuse, etc.), Zurich organise l’assistance nécessaire par un professionnel. Sont assurés les frais d’intervention du professionnel sollicité pour l’ouverture et – si nécessaire – le montage d’une serrure provisoire. Si l’accès au propre appartement est bloqué (p.ex. parce que le propriétaire ne donne pas son accord à l’ouverture de la porte), les frais d’hébergement des personnes concernées sont pris en charge. Les frais sont assurés à concurrence de CHF 1’000 par événement. Les frais supplémentaires, tels que les frais de réparation définitive ou de remplacement de la serrure, ne sont pas assurés.
+904.3.3 Aide aux propriétaires de bâtiment et par étage en cas de panne des installations de chauffage, de climatisation, d’aération, de monte-charge, de sanitaires et du boîtier de fusibles
+Zurich organise l’assistance nécessaire par un professionnel lorsque les installations suivantes ne fonctionnent plus :
+- installations de chauffage, de climatisation et d’aération ;
+- monte-charges ;
+- installations sanitaires ;
+- boîtier de fusibles.
+Sont assurés les frais de l’intervention unique du professionnel sollicité dans la limite de CHF 1’000 par événement. Les pannes dues à un manque de carburant et de lubrifiant ainsi que les frais des pièces de rechange nécessaires ne sont pas assurés.
+904.3.4 Service de nettoyage des conduites
+Si une conduite d’eau bouchée ne peut pas être débouchée sans l’aide d’un professionnel, Zurich organise l’intervention d’un professionnel pour déboucher la conduite. Sont assurés les frais de l’intervention unique du professionnel sollicité dans la limite de CHF 1’000 par événement.
+904.3.5 Élimination de nids d’abeilles, de guêpes et de frelons
+Si des nids d’abeilles, de guêpes ou de frelons se trouvent au lieu assuré, Zurich organise leur élimination ou leur déplacement par un professionnel. Zurich ne fournit aucune prestation si le déplacement ou l’élimination n’est pas légalement autorisé, par exemple pour des raisons de protection de l’espèce. Sont assurés les frais d’intervention du professionnel sollicité dans la limite de CHF 1’000 par événement.
+904.3.6 Service de lutte contre les nuisibles et la vermine
+Zurich organise les mesures suivantes et prend en charge les prestations associées lorsque les locaux assurés sont infestés par des nuisibles ou de la vermine :
+a) Identification
+En cas d’infestation, Zurich prend en charge à concurrence de CHF 500 l’identification du nuisible ou de la vermine au moyen d’un entretien téléphonique préalable, d’une analyse de photos ou en se rendant sur place. Aucune prestation n’est fournie si des nuisibles et la vermine n’ont infesté que des animaux et des plantes.
+b) Mesures de lutte en cas de danger pour la santé
+Zurich prend en charge à concurrence de CHF 5’000 la lutte contre les espèces de nuisibles et vermines suivants qui sont dangereux pour la santé humaine :
+- punaise de lit (Cimex lectularius) ;
+- blatte germanique (Blattella germanica), blatte orientale (Blatta orientalis), blatte rayée (Supella longipalpa), blatte américaine (Periplaneta americana) et blatte australienne (Periplaneta australasiae) ;
+- fourmi pharaon (Monomorium pharaonis) ;
+- souris domestique (Mus musculus), rat brun (Rattus norvegicus), rat noir (Rattus rattus) ;
+- tique de pigeon (Argas reflexus) ;
+- pou rouge des volailles (Dermanyssus gallinae) et pou nordique (Ornithonyssus sylvarium).
+Cette énumération est limitative. Si la société mandatée pour leur élimination doit créer des installations pour les éliminer, ces frais sont également assurés dans le cadre de la somme d’assurance.
+Restrictions de l’étendue de l’assurance
+Ne sont pas assurés :
+- les dommages au bâtiment et au mobilier du ménage ;
+- les frais des mesures architectoniques pour éviter une infestation de nuisibles et de vermine (p.ex. pose de grilles).
+Délai de carence pour le service de lutte contre les nuisibles et la vermine
+À partir de la date de début de cette couverture, la couverture d’assurance ne prend effet qu’au terme d’un délai de carence de 60 jours.</t>
+  </si>
+  <si>
+    <t>Zurich Relax Assistance</t>
+  </si>
+  <si>
+    <t>Art. 1</t>
+  </si>
+  <si>
+    <t>Art. 2</t>
+  </si>
+  <si>
+    <t>Art. 3</t>
+  </si>
+  <si>
+    <t>Art. 4</t>
+  </si>
+  <si>
+    <t>Art. 5</t>
+  </si>
+  <si>
+    <t>Art. 6</t>
+  </si>
+  <si>
+    <t>Art. 7</t>
+  </si>
+  <si>
+    <t>Art. 8</t>
+  </si>
+  <si>
+    <t>Art. 9</t>
+  </si>
+  <si>
+    <t>Art. 10</t>
+  </si>
+  <si>
+    <t>Art. 11</t>
+  </si>
+  <si>
+    <t>Art. 100, 101, 102, 103, 104</t>
+  </si>
+  <si>
+    <t>Art. 200, 201, 202, 203</t>
+  </si>
+  <si>
+    <t>Art. 300, 301, 302, 303, 304</t>
+  </si>
+  <si>
+    <t>Art. 400, 401, 402, 403, 404</t>
+  </si>
+  <si>
+    <t>Art. 500, 501, 503, 504</t>
+  </si>
+  <si>
+    <t>Art.1 Bases du contrat et droit applicable 
+La couverture d’assurance dépend de la solution d’assurance choisie. Les droits et obligations des parties au contrat et l’étendue de l’assurance sont fixés dans la police, les conditions générales d’assurance (CGA) et les éventuelles conditions particulières ou supplémentaires. Le droit suisse est applicable au présent contrat, en particulier les dispositions de la loi fédérale sur le contrat d’assurance (LCA). Qui sont les assureurs? Les assureurs sont Zurich Compagnie d’Assurances SA, Zurich, et, pour les assurances de protection juridique, Orion Assurance de Protection juridique SA, Bâle</t>
+  </si>
+  <si>
+    <t>Art.2 Personnes assurées 
+Sont assurées selon ce qui est convenu les variantes suivantes: 
+- Personne individuelle 
+Est assuré le preneur d’assurance. 
+- Couverture de prévoyance pour la variante Personne individuelle 
+En cas de mariage, de conclusion d’un partenariat enregis tré ou d’un concubinage, la couverture d’assurance est également valable pendant un an pour les personnes vivant dans le même ménage. Les limites de la couverture choisie (Personne individuelle) s’appliquent. 
+- Toutes les personnes vivant dans le même ménage 
+Sont assurés le preneur d’assurance et toutes les per sonnes vivant en communauté d’habitation avec lui ou regagnant régulièrement son ménage la semaine ou le week-end. Si le compagnon possède son propre domicile, il n’est pas considéré comme une personne assurée. 
+- Les enfants mineurs 
+Les enfants mineurs des personnes assurées sont égale ment couverts avec ces dernières dans le cadre des prestations convenues pour les voyages touristiques communs, même s’ils ne vivent pas en communauté d’habitation avec elles (valable pour les deux variantes).</t>
+  </si>
+  <si>
+    <t>Art.3 Début et durée de l’assurance 
+L’assurance prend effet le jour indiqué dans la police et couvre les événements et dommages qui surviennent au cours de la durée de l’assurance. Le contrat est reconduit tacitement d’une année s’il n’est pas résilié à la fin de la troisième année ou de chaque an née suivante, moyennant un délai de trois mois, par écrit ou sous une autre forme permettant d’en établir la preuve par un texte. La résiliation est considérée comme inter venue à temps si elle parvient à l’autre partie au contrat au plus tard le jour qui précède le début du délai de trois mois. Si le contrat est conclu pour une durée inférieure à un an, celui-ci prend fin au jour indiqué dans la police. 
+Déménagement à l’étranger 
+En cas de déménagement définitif à l’étranger, l’assurance prend fin immédiatement sur demande du preneur d’assu rance ou à l’échéance suivante de la prime. En cas de déménagement dans la Principauté de Liechtenstein, sur demande du preneur d’assurance, l’assurance peut être maintenue à l’exclusion de l’assurance de protection juridique voyage</t>
+  </si>
+  <si>
+    <t>Art.4 Paiement de la prime et adaptations du contrat 
+Bases de la prime: La prime se fonde sur l’étendue de l’assurance et des données du preneur d’assurance. Si l’une de ces données change (excepté l’âge), Zurich doit en être informée immédiatement. Elle est alors en droit d’adapter le contrat au changement de situation. 
+Paiement échelonné: Le paiement par acomptes donne lieu à un supplément. Zurich a le droit d’ajuster le supplément à l’échéance principale; dans ce cas, le preneur d’assurance a le droit de modifier le mode de paiement. L’information du preneur d’assurance doit parvenir à Zurich au plus tard à la date d’échéance de la prime. Soldes Les parties au contrat renoncent à exiger les soldes de notes de primes inférieurs à CHF 5. 
+Adaptations du contrat: Zurich peut, avec effet à partir de l’année d’assurance suivante, modifier le contrat (p.ex.augmenter les primes, modifier les conditions d’assurance ou les réglementations des franchises). Zurich communique au preneur d’assurance les nouvelles primes ou nouvelles dispositions contractuelles au plus tard 25 jours avant l’expiration de l’année d’assurance. Le preneur d’assurance a alors le droit de résilier le contrat d’assurance dans sa totalité ou seulement pour la partie affectée par l’augmentation, pour la fin de l’année d’assu rance en cours. La résiliation doit être parvenue à Zurich au plus tard le dernier jour de l’année d’assurance. S’il ne fait pas usage de son droit de résiliation, la modification du contrat d’assurance est réputée acceptée. Ne donnent pas droit à une résiliation: • Augmentation des suppléments pour paiement par acomptes • Introduction ou modification de taxes légales (droit de timbre fédéral, p.ex.) • Modifications de contrats imposées par la loi ou les autorités 
+Conséquences du retard: Si le preneur d’assurance ne respecte pas son obligation de paiement, il est sommé d’effectuer le paiement et est redevable des frais de sommation et des intérêts mora toires.</t>
+  </si>
+  <si>
+    <t>Art.5 Exclusions générales 
+Sont exclues de l’assurance les consequences:
+-	de troubles en tout genre, de catastrophes naturelles et environnementales, d’actes de guerre et de terrorisme. Les exceptions sont décrites dans les frais d’annulation (art.102.9 et 102.10) et la protection voyage (art.201.3);
+-	de la fission ou la fusion nucléaire, à des matériaux radioactifs, à une contamination radioactive ainsi qu’à des dispositifs nucléaires explosifs ou à toutes armes nucléaires et aux mesures prises pour les combattre; 
+-	de la participation en circuit fermé à des courses, rallyes, compétitions ou séances d’entraînement similaires avec des véhicules à moteur, des traîneaux à moteur ou des bateaux à moteur; 
+-	des événements assurés qui étaient déjà survenus ou dont la survenance était prévisible au moment de la réservation du voyage, de la soumission de l’offre ou de la proposition ou de la conclusion du contrat. La cou verture d’assurance couvre les maladies chroniques lorsque le voyage doit être annulé en raison d’une aggravation ¬aiguë, inattendue et attestée par un médecin. Il faut toutefois qu’au moment de la réservation du voyage, l’état de santé de la personne ait été stable et qu’elle ait été en capacité de voyager; 
+-	de violation d’obligations légales (p.ex.retrait de permis); 
+-	de crimes; 
+-	de prétentions récursoires de tiers;
+-	de franchises d’autres polices d’assurance</t>
+  </si>
+  <si>
+    <t>Art.6 Cas de sinistre 
+-	Zurich prend en charge l’organisation des prestations d’assurance. En cas de sinistre ou pour toute aide nécessaire, il convient d’aviser immédiatement Zurich: Téléphone 0800 80 80 80, +41 44 628 98 98 depuis l’étranger. Les articles 607 et 608 s’appliquent aux cas de protection juridique. La personne assurée est tenue de prendre les mesures requises pour réduire le dommage et de suivre les instructions de Zurich ou d’Orion. 
+-	Etablissement des faits: La personne assurée doit apporter son concours à la clarification des faits et fournir à Zurich et à Orion tous les renseignements et documents requis. Elle doit les obtenir auprès de tiers à l’attention de Zurich ou d’Orion et auto riser par écrit les tiers à fournir à Zurich et/ou Orion les informations, documents correspondants, etc. Zurich et/ou Orion sont autorisées à effectuer leurs propres recherches. En cas de maladie, de grossesse ou d’accident, le médecin traitant sera délié du secret professionnel envers Zurich.
+-	Suppression de l’obligation de verser des prestations: Si une mesure de secours assurée ne peut pas être ordonnée, organisée ou exécutée par Zurich en raison du comportement de l’ayant droit, Zurich n’a pas d’obligation de verser des prestations pour cette mesure. Cette limitation ne s’applique pas à la couverture frais d’annulation, sauf en cas d’annulation d’un voyage suite à des événements tels qu’énconcés à l’art.102.5, 102.9 et 102.10. Dans ce cas, il est impératif de contacter Zurich en premier lieu si le moment du départ prévu se situe plus de 30 jours après. 
+-	Prétentions envers des tiers: Si une personne assurée fait valoir des prétentions légales ou contractuelles envers d’autres fournisseurs de presta tions et/ou tiers ou si des prestations sont prévues au titre de patronages, la couverture d’assurance découlant du présent contrat se limite à la partie des prestations qui dépasse celle de l’autre fournisseur de prestations et/ou tiers. Dans ces cas-là, une avance peut être accordée sur les prestations d’assurance. L’ayant droit doit toutefois céder à Zurich ses prétentions envers les fournisseurs de prestations et/ou les tiers à hauteur de l’avance.</t>
+  </si>
+  <si>
+    <t>Art.7 Violation des obligations 
+En cas de violation d’obligations légales ou contractuelles ou de devoirs de diligence, les prestations peuvent être refusées ou réduites, à moins que la violation ne soit pas fautive et qu’elle n’ait pas influencé la survenance ou l’am pleur du dommage au regard des circonstances. L’insolvabilité n’excuse pas le retard dans le paiement de la prime.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art.8 Compensation
+Zurich peut compenser ses créances en suspens à l’égard du preneur d’assurance avec les droits de ce dernier à une indemnité pour sinistre ou à un rembourse ment de prime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art.9 
+For judiciaire Le preneur d’assurance ou l’ayant droit aux prestations peut choisir comme for: • Bâle ou Zurich; • le domicile ou le siège suisse ou liechtensteinois du preneur d’assurance ou de l’ayant droit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Art.10 Communication à Zurich
+Les communications doivent être adressées à la Zurich Compagnie d’Assurances SA, case postale, 8085 Zurich. </t>
+  </si>
+  <si>
+    <t>Art.11
+Sanctions économiques, commerciales et financières Zurich et Orion n’accordent aucune couverture et n’ont aucune obligation d’effectuer des paiements ou de fournir d’autres prestations si cela enfreint des sanctions écono miques, commerciales et financières en vigueur</t>
+  </si>
+  <si>
+    <t>Frais d’annulation
+Art.100 Validité territoriale
+La couverture d’assurance est valable dans le monde entier.
+Art.101 Voyages et manifestations assurés
+L’assurance couvre:
+• l’arrangement de vacances réservé;
+• les séjours linguistiques et de cours de vacances de plusieurs jours avec réservation d’hébergement;
+• les cours de plusieurs jours pour formation professionnelle et formation continue avec réservation d’hébergement;
+• les voyages réservés en avion, en train ou en bateau;
+• les locations de chambres d’hôtel, d’appartements de vacances, de bateaux, de voitures de tourisme, camping cars ou emplacement de camping;
+• les visites de manifestations uniques (même sans arrangement de voyage réservé) pour des billets à partir de CHF 100 par personne, comme par exemple des concerts, des représentations théâtrales (sans cours); des personnes assurées quelle que soit la personne qui a effectué la réservation ou assumé les frais. Pour les voyages de groupe et les manifestations de société, les prestations pour la partie voyage des personnes assurées sont fournies.
+Art.102 Evénements assurés
+La couverture d’assurance est accordée si, après la réservation et avant le début du voyage (ou avant le début des cours, de la durée de la location ou de l’événement), la participation au voyage assuré ou la présence à l’événement assuré ne peut pas avoir lieu car:
+102.1 Problèmes de santé
+• une personne assurée tombe gravement malade, est victime d’un accident grave, décède ou a des complications liées à la grossesse;
+• un de ses proches (membres de la famille, proche parent, partenaire, parrain) ou le suppléant d’une personne assurée sur le lieu de travail, dont la présence est nécessaire, tombe gravement malade, est victime d’un accident grave ou décède;
+• la personne assurée ne souhaite pas entreprendre seule le voyage parce que la personne qui devait l’accompagner ou un membre de la famille de cette personne tombe gravement malade, est victime d’un accident grave ou décède;
+• la personne prévue pour la garde d’enfants mineurs ou de membres de sa famille dépendants ne peut pas assumer cette tâche pour cause de maladie, d’accident ou de décès, et malgré les efforts fournis, il n’est plus possible d’organiser une garde de substitution appropriée;
+• une personne assurée, son conjoint ou un proche est porté disparu et a été signalé aux autorités; La couverture d’assurance couvre les maladies psychiques uniquement lorsqu’un psychiatre confirme une maladie sérieuse et l’incapacité de voyager.
+102.2 Empêchements liés à l’emploi
+• le contrat de travail de la personne assurée est résilié de manière inopinée par l’employeur; (une résiliation auto infligée par l’assuré n’est pas assurée);
+• la personne assurée enregistrée sans emploi auprès de l’ORP (Office régional de placement) doit respecter des obligations de l’ORP ou accepte un nouveau travail l’empêchant, par conséquence directe, d’entreprendre le voyage déjà réservé;
+102.3 Dommages liés à une effraction, à un incendie, à des dégâts d'eau ou à un dommage naturel
+• la présence sur place de la personne assurée durant le voyage ou la manifestation assurée s'impose pour cause de dommages graves occasionnés à son logement en propriété, en location, à son appartement ou à sa maison de vacances suite à une effraction, à un incendie, à des dégâts d'eau ou à un dommage naturel;
+102.4 Empêchements liés à des moyens de transport
+• le moyen de transport public utilisé par la personne assurée pour se rendre à l’aéroport ou à la gare en Suisse subit un retard ou est supprimé;
+• le véhicule privé ou le taxi utilisé ne roule plus par suite d’un accident ou d’une panne sur le trajet direct vers le lieu de départ prévu pour l’arrangement de vacances conclu;
+102.5 Insolvabilité, faillite
+• l’entreprise de transport réservée par une personne assurée ne peut plus assumer ses obligations pour cause d’insolvabilité ou de faillite;
+102.6 Empêchements liés à des animaux domestiques
+• le chien ou le chat de la personne assurée tombe malade ou est victime d’un accident (nécessité d’un certificat d’un vétérinaire) et ne peut pas être gardé dans une pension pour animaux;
+• la personne auprès de laquelle le chien ou le chat doit être placé ne peut pas assumer cette tâche pour cause d’accident, de maladie ou de décès. Dans ce cas, seuls les frais relatifs à la pension pour animaux sont pris en charge à concurrence de CHF 1’000 au maximum.
+102.7 Vol de documents
+• les documents de voyage personnels d’un assuré ont été volés et le vol est déclaré à l’autorité de police compétente;
+102.8 Convocations au tribunal
+• une personne assurée reçoit, de manière inattendue, une convocation au tribunal en tant que témoin, si la date de convocation tombe pendant la durée du voyage et ne peut pas être reportée;
+102.9 Avertissement aux voyageurs
+• au moment de partir en voyage, un avertissement ou une recommandation a été émise aux voyageurs par une autorité suisse (par ex. Conseil fédéral, DFAE – Département fédéral des affaires étrangères –, OFSP – Office fédéral de la santé publique) en rapport avec:
+- Des troubles en tout genre;
+- Des risques sanitaires dus à des épidémies ou des pandémies;
+- Des faits de guerre et événements terroristes (cette disposition ne s’applique pas en cas d’utilisation d’armes ou de substances atomiques, biologiques ou chimiques à des fins de guerre ou de terrorisme);
+Si l’avertissement ou la recommandation a déjà été émise au moment de la réservation ou de la conclusion du contrat, aucune prestation n’est fournie, sauf si l’avertissement ou la recommandation a été levée avant le début du voyage et est réémise après un certain temps.
+Si les voyages réservés sont modifiés ou annulés par le prestataire (voyagiste, compagnie aérienne, etc.), la couverture d’assurance est supprimée pour les frais qui, juridiquement (par ex. en vertu d’une loi, d’un accord ou d’un contrat), doivent être pris en charge par le prestataire.
+102.10 Mesures officielles, catastrophes naturelles, grèves, événements naturels
+• une personne assurée ou une personne voyageant avec elle ne peut pas participer au voyage pour les raisons suivantes:
+- Catastrophes naturelles;
+- Grèves;
+- Événements naturels (sont considérés comme des événements naturels les événements suivants: hautes eaux, inondations, tempête (vent d’au moins 75km/h), grêle, avalanches, pression d’une masse de neige, éboulement de rochers, chute de pierres ou glissement de terrain);
+- Mesures édictées par des autorités ou obligations qui ne peuvent pas être accomplies; (les interdictions d’entrée dues à l’absence de visa ou d’autres documents nécessaires à l’entrée sur le territoire, de vaccins ou de tests sanitaires, ainsi que les mesures policières après des accidents de la circulation ou des pannes de véhicules ne sont pas considérées comme des mesures officielles);
+- Quarantaine obligatoire dans le pays de destination ou en Suisse (même s’il est possible de voyager), qui n’était pas prévisible au moment de la réservation ou de la conclusion du contrat.
+Si les voyages réservés sont modifiés ou annulés par le prestataire (voyagiste, compagnie aérienne, etc.), la couverture d’assurance est supprimée pour les frais qui, juridiquement (par ex. en vertu d’une loi, d’un accord ou d’un contrat), doivent être pris en charge par le prestataire.
+Art.103 Prestations d’assurance
+Si la personne assurée est définitivement empêchée, les frais d’annulation prévus par les dispositions légales ou contractuelles (y compris les frais de traitement) de la personne assurée sont remboursés, quelle que soit la personne qui a effectué la réservation ou assumé les frais. Alternativement Zurich prend en charge,
+• en cas de début du voyage retardé, les frais correspondant aux prestations de séjour non perçues jusqu’à la date du départ et les frais supplémentaires encourus;
+• les frais de changement de réservation du voyage vers une autre destination ou à une autre date;
+• en cas de défaillance du partenaire du voyage en raison d’un événement assuré, les frais supplémentaires pour le supplément chambre individuelle;
+Les frais sont pris en charge jusqu’à concurrence du montant pour le voyage réservé initialement. La prise en charge des frais d’annulation de formations continues et professionnelles (hors frais de voyage et d’hébergement) est limitée à CHF 5’000 par événement. Les frais qui sont ou doivent être pris en charge par l’employeur ne sont pas remboursés.
+Art.104 Exclusions
+Voyages d’affaires
+Aucune prestation n’est fournie pour les voyages d’affaires. Si des activités professionnelles sont associées à un voyage privé, les prestations convenues pour la partie privée de la réservation seront fournies dans la même proportion.
+Abonnements
+L’assurance ne couvre pas les prestations d’abonnements.
+Événements non assurés
+L’assurance ne couvre pas les frais d’annulation lorsque celle-ci est due uniquement à la crainte de risques pour la santé, d’actes terroristes, d’accidents de vol ou de navigation, de catastrophes naturelles, de troubles intérieurs, d’événements de guerre ou à la phobie de l’avion.
+Art.105 Limites de prestations
+Variante Personne individuelle
+Les prestations sont limitées à CHF 30’000 max. par événement.
+Variante Toutes les personnes vivant dans le même ménage
+Les prestations se montent à CHF 30’000 max. par personne et par événement assurés, mais au maximum à CHF 120’000, toutes personnes comprises.</t>
+  </si>
+  <si>
+    <t>Assistance voyage
+Art.200 Validité territoriale
+La couverture d’assurance est valable dans le monde entier.
+Art.201 Événements assurés
+La couverture d’assurance est octroyée lorsque, pendant le voyage :
+201.1 Problèmes de santé
+• une personne assurée tombe gravement malade, est victime d’un accident grave, décède ou a des complications liées à la grossesse;
+• une personne assurée doit rentrer car un de ses proches (membres de la famille, proche parent, partenaire, parrain, personne pour la garde d’enfants mineurs ou de proches dépendants ne participant pas au voyage) ou le suppléant d’une personne assurée sur le lieu de travail tombe gravement malade, est victime d’un accident grave ou décède;
+• une personne accompagnant une personne assurée en voyage tombe gravement malade ou subit un accident grave ou vient à décéder;
+• une personne accompagnatrice est portée disparue au moment du retour ou de la poursuite du voyage;
+201.2 Dommages liés à une effraction, à un incendie, à des dégâts d'eau ou à un dommage naturel
+• la présence sur place de la personne assurée durant le voyage planifié s’impose pour cause de dommages graves occasionnés à son logement en propriété, en location, à son appartement ou à sa maison de vacances suite à une effraction, à un incendie, à des dégâts d’eau ou à un dommage naturel;
+201.3 Troubles, guerre, grèves, dommages naturels, mesures officielles
+• troubles de tout genre, ainsi que catastrophes naturelles, épidémies et pandémies, faits de guerre et événements terroristes (sauf en cas d’utilisation d’armes ou de substances atomiques, biologiques ou chimiques à des fins de guerre ou de terrorisme);
+• grèves ou événements naturels (sont considérés comme des événements naturels les événements suivants: hautes eaux, inondations, tempête (vent d’au moins 75km/h), grêle, avalanches, pression d’une masse de neige, éboulement de rochers, chute de pierres ou glissement de terrain);
+• des mesures ou grèves officielles empêchent la poursuite du voyage ou le voyage de retour d’une personne assurée (les interdictions d’entrée dues à l’absence de visa ou d’autres documents nécessaires à l’entrée sur le territoire, de vaccins ou de test de santé, ainsi que les mesures policières après des accidents de la circulation ou des pannes de véhicules ne sont pas considérées comme des mesures officielles);
+• une quarantaine obligatoire est imposée au retour en Suisse ou dans la Principauté de Liechtenstein, qu’il n’est pas nécessaire de respecter si une personne assurée rentre avant la date prévue;
+Si le voyage a été commencé bien qu’une autorité suisse (par ex. le Conseil fédéral, le DFAE – Département fédéral des affaires étrangères – et/ou l’OFSP – Office fédéral de la santé publique – ait conseillé ou recommandé de ne pas partir en voyage au moins 24 heures avant le départ, l’obligation de verser des prestations est supprimée.
+Si les voyages réservés sont modifiés ou annulés par le prestataire (voyagiste, compagnie aérienne, etc.), la couverture d’assurance est supprimée pour les frais qui, juridiquement (par ex. en vertu d’une loi, d’un accord ou d’un contrat), doivent être pris en charge par le prestataire.
+Art.202 Prestations d’assurance
+Les prestations incluent par événement :
+202.1 Opérations de recherche et de sauvetage et transports les opérations nécessaires de recherche et de sauvetage, ainsi que les transports des personnes assurées concernées par l’événement, jusqu’à CHF 30’000 maximum.
+Si une personne assurée est portée disparue même en l’absence d’événement assuré, Zurich prend en charge les frais d’une opération de recherche officielle jusqu’à CHF 30’000 par événement, même si la personne est retrouvée saine et sauve. En cas d’enlèvement, la couverture pour les frais de recherche expire avec la certitude de l’enlèvement;
+202.2 Rapatriement
+• si la personne assurée est gravement malade ou est victime d’un grave accident, le rapatriement nécessaire d’un point de vue médical ou le voyage de retour à sa demande au domicile permanent en Suisse ou dans la Principauté de Liechtenstein ou à l’hôpital local, de même que les frais d’accompagnement nécessaire par du personnel médical;
+202.3 Voyage de retour définitif
+• les frais supplémentaires du voyage de retour au domicile permanent en Suisse ou dans la Principauté de Liechtenstein. À cet égard, on se basera sur le type et la classe du moyen de transport réservé pour le voyage retour;
+202.4 Voyage de retour temporaire
+• en cas de voyage de retour temporaire, les frais supplémentaires occasionnés pour le voyage de retour au domicile en Suisse ou dans la Principauté de Liechtenstein et sur le lieu de vacances (pendant le voyage réservé), dans la mesure où le séjour a été réservé pour une durée limitée au préalable avec voyage de retour compris. À cet égard, on se basera sur la catégorie du moyen de transport (type et classe) utilisé. Les frais occasionnés pour la partie du voyage non utilisée ne sont pas remboursés. De plus, il n’existe pas un droit au voyage de remplacement;
+202.5 Inutilisation partielle des prestations réservées
+• en cas d’interruption prématurée du voyage ou de départ retardé, les frais justifiés pour les prestations qui ont été perdues (hors voyage retour) pour chaque personne assurée participant au voyage. Cette prestation est supprimée pour toutes les personnes ayant droit à un voyage de remplacement;
+La prise en charge des prestations réservées mais non utilisées pour des formations continues et professionnelles (hors frais de voyage et d’hébergement) est limitée à CHF 5’000 par événement. Les frais qui sont ou doivent être pris en charge par l’employeur ne sont pas remboursés.
+Indépendamment du nombre de réservations, les prestations dans la variante «Personne individuelle» sont limitées à CHF 30’000 par événement, dans la variante «Toutes les personnes vivant dans le même ménage», à CHF 30’000 par personne et événement assurés, au maximum toutefois à CHF 120’000 toutes personnes comprises.
+202.6 Raccompagnement d’enfants
+• en cas de maladie grave, d’accident grave ou de décès de la personne assurée, l’organisation et la prise en charge des frais de voyage d’une personne qui doit ramener des enfants qui participent au voyage à leur domicile permanent en Suisse ou dans la Principauté de Liechtenstein, y compris les frais d’hébergement et de restauration nécessaires;
+202.7 Information des parents proches
+• sur demande de l’assuré, l’information des parents proches ou de l’employeur sur les circonstances et les mesures prises par le prestataire de services mandaté par Zurich;
+202.8 Transfert
+• les frais de sauvetage et de transfert du corps d’un assuré à son domicile en Suisse ou dans la Principauté de Liechtenstein.
+202.9 Frais assurés en complément
+202.9.1 Frais de visite
+• En cas de séjour hospitalier ou de décès à l’étranger d’une personne assurée, les frais liés aux visites de personnes non accompagnantes (voyage en classe économique, hébergement et frais supplémentaires de pension) sont pris en charge à hauteur de CHF 5’000 maximum.
+202.9.2 Frais supplémentaires
+• Les frais supplémentaires occasionnés par un événement assuré dans la limite de CHF 1’000,
+ - pour les transports et l’hébergement par personne accompagnante assurée (s’applique également en cas de prolongement nécessaire du séjour);
+- pour les frais de restauration supplémentaires justifiés, un montant de max. CHF 30 est versé par jour et par personne assurée participant au voyage;
+- pour le transport et l’hébergement d’animaux domestiques participant au voyage.
+Si la personne assurée fait valoir son droit aux frais supplémentaires de séjour et de restauration, les prestations correspondantes prévues à l’art.202.5 sont supprimées (Inutilisation partielle des prestations réservées).
+Les frais de téléphone justifiés sont remboursés dans le cadre de cette limite jusqu’à CHF 200 maximum.
+Art.203 Événements et prestations supplémentaires assurés
+203.1 Défection des moyens de transport
+• Si, après le début du voyage réservé, le moyen de transport choisi a un retard de trois heures au minimum ou s’il ne peut pas être utilisé par suite d’une panne ou d’un accident, les frais supplémentaires de voyage à la charge de la personne assurée sont couverts jusqu’à CHF 1’000 au maximum par personne.
+• Si le moyen de transport choisi est supprimé à cause de l’insolvabilité de l’exploitant, les frais supplémentaires de voyage à la charge de la personne assurée (dans la classe originalement réservée) sont couverts jusqu’à CHF 3’000 au maximum par personne.
+Un cumul avec les frais supplémentaires à la suite du dépannage (art.501.3.5) n’est pas autorisé.
+Si la poursuite du voyage est impossible, les frais des prestations réservées perdues sont pris en charge.
+Les prestations sont limitées aux sommes d’assurance convenues dans le cadre des frais d’annulation.
+Ne sont pas comprises les prestations qui doivent être fournies par le voyagiste et l’entreprise de transports, etc. en vertu d’une loi, d’un accord ou d’un contrat. Le droit aux prestations n’est pas accordé si le retard est imputable à une personne assurée.
+203.2 Vol de documents
+• Si le vol de documents de voyage personnels retarde la poursuite du voyage ou le voyage de retour, les frais supplémentaires sont pris en charge jusqu’à CHF 1’000 par événement. La perte doit être déclarée dans les plus brefs délais à l’autorité de police compétente, sans quoi la prestation ne sera pas fournie.
+Si la poursuite du voyage est impossible, les frais des prestations réservées perdues sont pris en charge.
+Les prestations sont limitées aux sommes d’assurance convenues dans le cadre des frais d’annulation.
+203.3 Impossibilité d’utilisation du logement réservé pendant le voyage
+• Si la personne assurée ne peut pas utiliser un logement réservé pendant un voyage suite à un dommage causé par un incendie, un dommage naturel ou un dégât d’eau ou en raison d’une fermeture d’entreprise, les frais supplémentaires d’hébergement et de restauration sont pris en charge à hauteur de CHF 1’000 par personne assurée.
+203.4 Insolvabilité de l’organisateur du voyage
+• Les frais de séjour et du voyage de retour sont avancés si, suite à l’insolvabilité de l’organisateur du voyage, la poursuite du voyage réservé n’est plus possible qu’aux frais de la personne assurée. Le montant doit être remboursé dans les 30 jours qui suivent le retour.</t>
+  </si>
+  <si>
+    <t>Voyage de remplacement
+Art.300 Validité territoriale
+L’assurance est valable dans le monde entier.
+Art.301 Événements assurés
+Il existe une couverture d’assurance si une personne assurée tombe gravement malade pendant le voyage réservé ou qu’elle subit un accident grave et que sa santé nécessite, d’un point de vue médical, un retour ou un rapatriement. La nécessité médicale existe lorsque les possibilités de traitement sur place sont insuffisantes.
+Art.302 Prestations d’assurance
+Le prix du voyage ou de l’arrangement réservé et payé avant le départ est pris en charge pour la personne rapatriée.
+Art.303 Exclusions
+Aucune prestation n’est fournie si :
+• le rapatriement ou le voyage de retour n’a pas été organisé par Zurich;
+• il s’agit d’un voyage d’affaires. Si des activités professionnelles sont associées à un voyage privé, les prestations convenues pour la partie privée de la réservation seront fournies dans la même proportion.
+Art.304 Limites de prestations
+Variante Personne individuelle
+Les prestations sont limitées à CHF 30’000 max. par événement.
+Variante Toutes les personnes vivant dans le même ménage
+Les prestations se montent à CHF 30’000 max. par personne et événement assurés, mais au maximum à CHF 120’000, toutes personnes comprises.</t>
+  </si>
+  <si>
+    <t>Bagages et retard des bagages
+Art.400 Validité territoriale
+L’assurance est valable dans le monde entier pour les voyages dont la destination se situe à plus de 50 km (à vol d’oiseau) du domicile permanent de l’assuré, ou lorsque celui-ci passe au moins une nuit à l’extérieur. Elle commence lors du départ en voyage après avoir quitté l’appartement et prend fin lors du retour en pénétrant dans l’appartement.
+Art.401 Choses assurées
+Sont assurés jusqu’à concurrence de la somme d’assurance indiquée dans la police les bagages que les personnes assurées emmènent en voyage pour leur usage personnel et privé ou remettent à une entreprise de transport pour acheminement vers le lieu de destination du voyage.
+Art.402 Événements et frais assurés
+402.1 Dommages aux bagages
+Les dommages occasionnés aux bagages suite à des pertes, détériorations et destruction subites et imprévues sont assurés. Les parachutes, parapentes, deltaplanes et équipements de kitesurf sont uniquement coassurés contre le vol ou la perte. Les frais de réparation ou de nettoyage sont indemnisés. En cas de dommage total, de vol ou de perte définitive, les frais de nouvelle acquisition d’un objet équivalent à celui qui existait au moment du cas de sinistre sont remboursés, à hauteur maximum toutefois de la somme d’assurance.
+402.2 Retard des bagages
+Sont assurés les frais pour les acquisitions absolument nécessaires occasionnés en raison du fait qu’une entreprise de transport a livré en retard les bagages remis pour acheminement, jusqu’à concurrence de 30% de la somme d’assurance pour les bagages.
+Art.403 Exclusions
+Sont exclus de l’assurance :
+• les dommages dus à une décision rendue par les autorités;
+• les dommages occasionnés par la température et les influences atmosphériques;
+• les dommages occasionnés par l’état naturel du bien, l’usure naturelle, l’emballage défectueux et les vermines;
+• les dommages dus à un égarement;
+• les dommages provoqués par un abus de confiance et un détournement;
+• les accessoires et outils de travail;
+• les bris de skis et de snowboards, sauf ceux liés à un accident de la circulation;
+• les équipements de sport utilisés dans le cadre d’une compétition;
+• les valeurs pécuniaires, c.-à-d. l’argent, les titres, les livrets d’épargne, les métaux précieux (sous forme de réserves, de lingots ou de marchandises de commerce), les abonnements non personnels, les billets et les bons non personnels, les pièces de monnaie et les médailles, les pierres précieuses et les perles non montées;
+• les marchandises de commerce et collections d’échantillons;
+• les actes, billets et timbres-poste, ainsi que supports visuels;
+• les véhicules nautiques (y compris accessoires) pour lesquels une assurance responsabilité civile obligatoire est prescrite, qui ne sont pas ramenés au domicile de manière régulière après utilisation, équipés de moteur (y compris les canots en plastique, gonflables et à rames équipés de moteur);
+• les véhicules à moteurs, cyclomoteurs, cyclomoteurs électriques, remorques, caravanes, mobilhomes, y compris leurs accessoires ainsi que les aéronefs, appareils volants et objets volants de tout genre qui doivent être enregistrés dans le registre matricule des aéronefs.
+Art.404 Franchise
+L’assuré doit supporter une franchise de CHF 200 par événement, sauf en cas de retard des bagages. Le dommage à indemniser est d’abord calculé, puis la franchise est déduite. La limitation de prestations n’intervient que dans un deuxième temps.
+Art.405 Évaluation du dommage
+Les causes et l’ampleur du dommage doivent être constatées par l’entreprise de transport, le responsable du voyage ou la direction de l’hôtel, la police ou le tiers responsable, et être attestées.</t>
+  </si>
+  <si>
+    <t>Service de dépannage
+Art.500 Validité territoriale
+L’assurance couvre les cas de sinistre qui surviennent en Suisse et dans la Principauté de Liechtenstein, dans les États d’Europe ainsi que dans les États bordant la Méditerranée ou dans les États insulaires de la Méditerranée. La couverture d’assurance n’est pas interrompue en cas de transport maritime, à condition que le lieu d’embarquement et le lieu de débarquement soient compris dans la zone de validité territoriale de l’assurance. La zone de validité exclut cependant les états suivants: Biélorussie, Moldavie, Ukraine, Fédération de Russie, Géorgie, Arménie, Azerbaïdjan, Kazakhstan, Egypte, Algérie, Liban, Libye et Syrie.
+Art.501 Dépannage pour les véhicules à moteur
+501.1 Véhicules assurés
+501.1.1 Véhicules assurés
+Variante Basic
+L’assurance s’applique aux véhicules à moteurs d’un poids total de 3’500kg au maximum (sans cyclomoteurs), et immatriculés en Suisse ou dans la Principauté de Liechtenstein, pour autant qu’ils soient immatriculés au nom d’une personne assurée ou qu’elle les conduise.
+501.1.2 Remorque
+Les remorques tirées par le véhicule à moteur assuré sont également assurées. Ceci vaut également si seule la remorque est en panne.
+501.1.3 Véhicules à moteur non assurés
+Ne sont pas assurés les véhicules à moteurs
+• qui sont utilisés pour la location professionnelle à des personnes qui conduisent elles-mêmes ces véhicules (p.ex. véhicules de location, véhicule Mobility) ou pour le transport professionnel de personnes (taxi p.ex.);
+• utilisés avec des plaques professionnelles;
+• immatriculés provisoirement.
+501.2 Événements assurés
+La couverture d’assurance existe lorsque le véhicule ne peut plus être utilisé à la suite d’une panne ou d’un événement casco. Est considérée comme une panne la défaillance d’un véhicule à moteur due à un défaut technique rendant l’utilisation impossible ou interdite par la loi. Les défauts de pneus ainsi que les événements au cours desquels un véhicule à moteur quitte la route (même sans collision) et nécessite l’aide de tiers sont assimilés à des pannes. Le fait que la clé se trouve dans le véhicule verrouillé, que le dispositif de déverrouillage électronique ne s’ouvre plus ou que la clé ou la serrure soit endommagée est également considéré comme une panne. Nous entendons par événements casco les dommages de collision, par incendie, les dommages naturels, les bris de glaces, les dommages causés par des fouines ou les dommages aux véhicules parqués, ainsi que le vandalisme, le vol ou la tentative de vol.
+501.3 Prestations assurées en Suisse et à l’étranger
+Les prestations incluent :
+501.3.1 Secours sur les lieux de l’événement
+l’organisation et la prise en charge des frais d’intervention visant à remettre le véhicule en état de circuler, dans la mesure où cela est possible sur place. Dans ce cas-là, les frais de remplacement de petites pièces comme par ex. des câbles, courroies, tuyaux, fusibles, etc. (hors batterie) sont pris en charge. Les frais de réparation supplémentaires ne sont pas assurés;
+501.3.2 Frais de dégagement
+les frais de dégagement nécessaire du véhicule automobile et de la remorque jusqu’à CHF 2’000 au maximum;
+501.3.3 Frais de remorquage
+la prise en charge des frais de remorquage jusqu’au garage le plus proche en mesure de procéder aux réparations, dans la mesure où le véhicule ne peut pas être remis en état de circuler sur place;
+501.3.4 Frais de stationnement
+la prise en charge des frais de stationnement jusqu’à CHF 500 si le véhicule n’est plus utilisable;
+501.3.5 Frais supplémentaires
+la prise en charge des frais jusqu’à CHF 5’000 max. si le véhicule n’est plus utilisable pour
+• un véhicule de remplacement d’une même valeur (dans la mesure des disponibilités) pendant la durée de réparation déclarée;
+– en cas de panne d’un camping-car d’un poids total supérieur à 3,5t, les frais pour une voiture de tourisme comme véhicule de remplacement sont pris en charge;
+– en cas de dommage total, les prestations pour une voiture de remplacement sont limitées à 15 jours à partir de la récupération de la voiture de remplacement;
+• le logement nécessaire;
+• la poursuite du voyage et le retour par transports publics ou en taxi;
+• le transport des bagages dans la mesure où il ne peut pas s’effectuer en utilisant la solution de mobilité prévue;
+• les prestations réservées pour le séjour qui ont été perdues;
+• le transfert du véhicule réparé en Suisse;
+• le transfert du véhicule non réparé en Suisse si le véhicule est réparable mais que la réparation est impossible sur place. Tout cumul avec des prestations de la couverture assistance voyage est exclu. Les frais pour assurances supplémentaires, de plein de carburant et les frais résultant de dommages causés au véhicule de location ne sont pas pris en charge. S’il n’est pas possible de mettre à disposition un véhicule de location car, par exemple, les directives du bailleur ne sont pas respectées (âge minimum, carte de crédit, etc.), les frais de voyage par transports publics sont pris en charge.
+501.3.6 Frais supplémentaires pour le transport des animaux
+la prise en charge des frais pour le transport et l’hébergement d’animaux domestiques participant au voyage; pour les chevaux transportés dans une remorque, les frais supplémentaires liés à leur hébergement sont pris en charge s’il est impossible de terminer le voyage dans la même journée. Les frais supplémentaires sont limités à CHF 1’000.
+501.3.7 Conducteur de remplacement
+si, suite à un accident ou à une maladie grave, ou à une disparition, le conducteur n’est plus en mesure de conduire le véhicule, ou s’il est décédé et qu’aucun autre passager ne possède le permis de conduire, les frais d’un conducteur de remplacement pour le rapatriement du véhicule et des passagers sont pris en charge;
+501.3.8 Auto ferries, train-autos
+les frais supplémentaires pour l’émission de nouveaux billets d’auto-ferries ou de train-autos jusqu’à un maximum de CHF 1’000 si, en raison d’un événement assuré, la correspondance avec les auto-ferries ou le train-autos a été manquée;
+501.3.9 Perte de clés
+• les frais de dépannage sur place;
+• les frais de remorquage jusqu’au garage le plus proche;
+• les frais de récupération ou d’envoi de la clé de remplacement;
+• les frais pour la poursuite du trajet avec les transports publics et pour l’hébergement jusqu’à concurrence de CHF 2’000.
+501.3.10 Panne de carburant, batterie déchargée
+les frais de remise en état de rouler (sans frais de carburant) ou pour les véhicules électriques, les frais de remorquage jusqu’à la station de chargement la plus proche, si le véhicule est immobilisé en raison d’un manque de carburant ou du déchargement des batteries/accumulateurs. Si le plein du véhicule n’a pas été fait correctement, les frais de remorquage jusqu’au garage le plus proche sont pris en charge.
+501.4 Prestations supplémentaires assurées hors de la Suisse/LI
+501.4.1 Frais d’expédition des pièces de rechange
+la prise en charge des frais d’expédition des pièces de rechange en cas de réparations à l’étranger afin de permettre la poursuite du voyage;
+501.4.2 Constatation de l’étendue du sinistre
+si nécessaire, la centrale d’appel d’urgence prend en charge les frais en vue d’apprécier la nécessité de rapatrier le véhicule. Les frais pour ces recherches sont limités à CHF 500;
+501.4.3 Rapatriement du véhicule de l’étranger
+la prise en charge des frais de rapatriement pour le véhicule réparé, non réparé, devenu inutilisable ou retrouvé depuis l’étranger dans l’atelier de réparation en Suisse ou dans la Principauté de Liechtenstein utilisé habituellement. Les frais de prise en charge sont toutefois limités à la valeur vénale du véhicule après la survenance de l’événement assuré. Le rapatriement du véhicule non réparé est assuré uniquement si celui-ci sera réparé;
+501.4.4 Dédouanement et mise à la casse à l’étranger
+les frais de dédouanement et de transport du véhicule vers la casse la plus proche, y compris les frais de mise à la casse en cas de dommage total.
+Art. 502 Dépannage pour les cycles et cyclomoteurs
+502.1 Véhicules assurés
+502.1.1 Véhicules assurés
+L’assurance est valable pour les cycles et les cyclomoteurs, ainsi que les véhicules équivalents (conformément aux art. 18 et 24 de l’OETV) dans la mesure où ils sont conduits par une personne assurée. Les remorques tractées par ces véhicules sont coassurées.
+502.1.2 Véhicules non assurés
+Ne sont pas assurés les véhicules loués ni les véhicules utilisés à des fins professionnelles ou pour générer un revenu.
+502.2 Événements assurés
+La couverture d’assurance s’applique lorsque le véhicule assuré n’est pas en état de marche en raison d’un défaut technique ou d’un accident ou qu’il a été volé.
+502.3 Prestations d’assurance
+502.3.1 Service de dépannage
+Les prestations incluent : le transport du véhicule assuré de la personne assurée concernée et, si souhaité, du cycle, du cyclomoteur ou d’un véhicule équivalent d’une personne voyageant avec l’assuré, jusqu’à la destination; l’organisation et la prise en charge des frais du transport de la personne assurée concernée et, si cela est souhaité, d’une personne voyageant avec l’assuré, jusqu’à la destination. Les mêmes prestations sont prises en charge pour les enfants et les animaux domestiques transportés dans la remorque par la personne assurée concernée. Si le lieu de la panne ou de l’accident est inaccessible en voiture, la personne assurée doit se rendre avec le véhicule dans un lieu auquel le dépanneur peut accéder avec son véhicule sans enfreindre la loi sur la circulation routière. Le conducteur doit être présent jusqu’au chargement de la chose assurée sur le véhicule de dépannage. Il en va de même pour une personne voyageant avec l’assuré et les enfants et les animaux domestiques transportés dans la remorque, dès lors que la prestation précitée doit aussi être fournie.
+502.3.2 Frais supplémentaires
+La prise en charge des frais suivants pour la personne assurée concernée et une personne voyageant avec l’assuré jusqu’à CHF 1’000 max., pour l’organisation par ses propres moyens du transport du véhicule assuré et du cycle, du cyclomoteur ou d’un véhicule équivalent de l’accompagnant en transports publics ou en taxi jusqu’à la destination; l’organisation par ses propres moyens du voyage retour ou de la poursuite du voyage en transports publics ou en taxi jusqu’à la destination. Les mêmes prestations sont prises en charge pour les enfants et les animaux domestiques transportés dans la remorque par la personne assurée concernée; les prestations déjà réservées, mais non utilisées pour le séjour au lieu de destination de la journée pour deux nuits tout au plus; l’hébergement nécessaire pendant la durée de la réparation du véhicule assuré ou jusqu’à l’organisation d’un remplacement.
+502.3.3 Destination
+Le conducteur de la chose assurée peut choisir l’un des lieux suivants comme destination : le lieu de départ du jour; le lieu de destination du jour; un atelier de son choix, qui se trouve à la même distance en kilomètres du lieu de l’événement que le lieu de départ du jour ou le lieu de destination du jour. La destination doit être la même pour la personne assurée concernée, le véhicule assuré et une personne voyageant avec l’assuré et son cycle, cyclomoteur ou véhicule équivalent.
+Art. 503 Responsabilité liée aux prestations fournies
+Les prestations fournies/l’organisation ont/a lieu par la commande de la personne assurée et peuvent/peut varier en fonction des conditions locales à l’étranger. Zurich n’assume aucune responsabilité pour des dommages causés par des prestataires mandatés.
+Art. 504 Exclusions
+Ne sont pas assurés les cas de sinistre liés à des accidents de la circulation au cours desquels le conducteur présente un taux d’alcoolémie de 1,6‰ (valeur minimale) ou plus ou est en incapacité de conduire parce qu’il se trouve sous l’influence de médicaments aux effets narcotiques ou de stupéfiants. Lorsqu’il n’a pas été procédé à une prise de sang mais à un contrôle au moyen de l’éthylotest, l’exclusion de couverture est de même applicable en cas de concentration d’alcool dans l’air expiré de 0,80mg/l ou plus; causés par une infraction particulièrement importante de la limite de vitesse autorisée, un dépassement téméraire ou une participation à des courses de vitesse illicites avec des véhicules automobiles au sens de l’art. 90 al. 3 LCR.</t>
+  </si>
+  <si>
+    <t>Service de dépannage
+Art.500 Validité territoriale
+L’assurance couvre les cas de sinistre qui surviennent en Suisse et dans la Principauté de Liechtenstein, dans les États d’Europe ainsi que dans les États bordant la Méditerranée ou dans les États insulaires de la Méditerranée. La couverture d’assurance n’est pas interrompue en cas de transport maritime, à condition que le lieu d’embarquement et le lieu de débarquement soient compris dans la zone de validité territoriale de l’assurance. La zone de validité exclut cependant les états suivants: Biélorussie, Moldavie, Ukraine, Fédération de Russie, Géorgie, Arménie, Azerbaïdjan, Kazakhstan, Egypte, Algérie, Liban, Libye et Syrie.
+Art.501 Dépannage pour les véhicules à moteur
+501.1 Véhicules assurés
+501.1.1 Véhicules assurés
+Variante Plus
+L’assurance s’applique en plus aux véhicules à moteurs d’un poids total de 3’500kg à 9’000kg au maximum et immatriculés en Suisse ou dans la Principauté de Liechtenstein en tant que camping-cars, pour autant qu’ils soient immatriculés au nom d’une personne assurée ou qu’elle les conduise. Dans les deux variantes, la couverture est étendue à toutes les personnes voyageant à bord du véhicule.
+501.1.2 Remorque
+Les remorques tirées par le véhicule à moteur assuré sont également assurées. Ceci vaut également si seule la remorque est en panne.
+501.1.3 Véhicules à moteur non assurés
+Ne sont pas assurés les véhicules à moteurs
+• qui sont utilisés pour la location professionnelle à des personnes qui conduisent elles-mêmes ces véhicules (p.ex. véhicules de location, véhicule Mobility) ou pour le transport professionnel de personnes (taxi p.ex.);
+• utilisés avec des plaques professionnelles;
+• immatriculés provisoirement.
+501.2 Événements assurés
+La couverture d’assurance existe lorsque le véhicule ne peut plus être utilisé à la suite d’une panne ou d’un événement casco. Est considérée comme une panne la défaillance d’un véhicule à moteur due à un défaut technique rendant l’utilisation impossible ou interdite par la loi. Les défauts de pneus ainsi que les événements au cours desquels un véhicule à moteur quitte la route (même sans collision) et nécessite l’aide de tiers sont assimilés à des pannes. Le fait que la clé se trouve dans le véhicule verrouillé, que le dispositif de déverrouillage électronique ne s’ouvre plus ou que la clé ou la serrure soit endommagée est également considéré comme une panne. Nous entendons par événements casco les dommages de collision, par incendie, les dommages naturels, les bris de glaces, les dommages causés par des fouines ou les dommages aux véhicules parqués, ainsi que le vandalisme, le vol ou la tentative de vol.
+501.3 Prestations assurées en Suisse et à l’étranger
+Les prestations incluent :
+501.3.1 Secours sur les lieux de l’événement
+l’organisation et la prise en charge des frais d’intervention visant à remettre le véhicule en état de circuler, dans la mesure où cela est possible sur place. Dans ce cas-là, les frais de remplacement de petites pièces comme par ex. des câbles, courroies, tuyaux, fusibles, etc. (hors batterie) sont pris en charge. Les frais de réparation supplémentaires ne sont pas assurés;
+501.3.2 Frais de dégagement
+les frais de dégagement nécessaire du véhicule automobile et de la remorque jusqu’à CHF 2’000 au maximum;
+501.3.3 Frais de remorquage
+la prise en charge des frais de remorquage jusqu’au garage le plus proche en mesure de procéder aux réparations, dans la mesure où le véhicule ne peut pas être remis en état de circuler sur place;
+501.3.4 Frais de stationnement
+la prise en charge des frais de stationnement jusqu’à CHF 500 si le véhicule n’est plus utilisable;
+501.3.5 Frais supplémentaires
+la prise en charge des frais jusqu’à CHF 5’000 max. si le véhicule n’est plus utilisable pour
+• un véhicule de remplacement d’une même valeur (dans la mesure des disponibilités) pendant la durée de réparation déclarée;
+– en cas de panne d’un camping-car d’un poids total supérieur à 3,5t, les frais pour une voiture de tourisme comme véhicule de remplacement sont pris en charge;
+– en cas de dommage total, les prestations pour une voiture de remplacement sont limitées à 15 jours à partir de la récupération de la voiture de remplacement;
+• le logement nécessaire;
+• la poursuite du voyage et le retour par transports publics ou en taxi;
+• le transport des bagages dans la mesure où il ne peut pas s’effectuer en utilisant la solution de mobilité prévue;
+• les prestations réservées pour le séjour qui ont été perdues;
+• le transfert du véhicule réparé en Suisse;
+• le transfert du véhicule non réparé en Suisse si le véhicule est réparable mais que la réparation est impossible sur place. Tout cumul avec des prestations de la couverture assistance voyage est exclu. Les frais pour assurances supplémentaires, de plein de carburant et les frais résultant de dommages causés au véhicule de location ne sont pas pris en charge. S’il n’est pas possible de mettre à disposition un véhicule de location car, par exemple, les directives du bailleur ne sont pas respectées (âge minimum, carte de crédit, etc.), les frais de voyage par transports publics sont pris en charge.
+501.3.6 Frais supplémentaires pour le transport des animaux
+la prise en charge des frais pour le transport et l’hébergement d’animaux domestiques participant au voyage; pour les chevaux transportés dans une remorque, les frais supplémentaires liés à leur hébergement sont pris en charge s’il est impossible de terminer le voyage dans la même journée. Les frais supplémentaires sont limités à CHF 1’000.
+501.3.7 Conducteur de remplacement
+si, suite à un accident ou à une maladie grave, ou à une disparition, le conducteur n’est plus en mesure de conduire le véhicule, ou s’il est décédé et qu’aucun autre passager ne possède le permis de conduire, les frais d’un conducteur de remplacement pour le rapatriement du véhicule et des passagers sont pris en charge;
+501.3.8 Auto ferries, train-autos
+les frais supplémentaires pour l’émission de nouveaux billets d’auto-ferries ou de train-autos jusqu’à un maximum de CHF 1’000 si, en raison d’un événement assuré, la correspondance avec les auto-ferries ou le train-autos a été manquée;
+501.3.9 Perte de clés
+• les frais de dépannage sur place;
+• les frais de remorquage jusqu’au garage le plus proche;
+• les frais de récupération ou d’envoi de la clé de remplacement;
+• les frais pour la poursuite du trajet avec les transports publics et pour l’hébergement jusqu’à concurrence de CHF 2’000.
+501.3.10 Panne de carburant, batterie déchargée
+les frais de remise en état de rouler (sans frais de carburant) ou pour les véhicules électriques, les frais de remorquage jusqu’à la station de chargement la plus proche, si le véhicule est immobilisé en raison d’un manque de carburant ou du déchargement des batteries/accumulateurs. Si le plein du véhicule n’a pas été fait correctement, les frais de remorquage jusqu’au garage le plus proche sont pris en charge.
+501.4 Prestations supplémentaires assurées hors de la Suisse/LI
+501.4.1 Frais d’expédition des pièces de rechange
+la prise en charge des frais d’expédition des pièces de rechange en cas de réparations à l’étranger afin de permettre la poursuite du voyage;
+501.4.2 Constatation de l’étendue du sinistre
+si nécessaire, la centrale d’appel d’urgence prend en charge les frais en vue d’apprécier la nécessité de rapatrier le véhicule. Les frais pour ces recherches sont limités à CHF 500;
+501.4.3 Rapatriement du véhicule de l’étranger
+la prise en charge des frais de rapatriement pour le véhicule réparé, non réparé, devenu inutilisable ou retrouvé depuis l’étranger dans l’atelier de réparation en Suisse ou dans la Principauté de Liechtenstein utilisé habituellement. Les frais de prise en charge sont toutefois limités à la valeur vénale du véhicule après la survenance de l’événement assuré. Le rapatriement du véhicule non réparé est assuré uniquement si celui-ci sera réparé;
+501.4.4 Dédouanement et mise à la casse à l’étranger
+les frais de dédouanement et de transport du véhicule vers la casse la plus proche, y compris les frais de mise à la casse en cas de dommage total.
+Art. 502 Dépannage pour les cycles et cyclomoteurs
+502.1 Véhicules assurés
+502.1.1 Véhicules assurés
+L’assurance est valable pour les cycles et les cyclomoteurs, ainsi que les véhicules équivalents (conformément aux art. 18 et 24 de l’OETV) dans la mesure où ils sont conduits par une personne assurée. Les remorques tractées par ces véhicules sont coassurées.
+502.1.2 Véhicules non assurés
+Ne sont pas assurés les véhicules loués ni les véhicules utilisés à des fins professionnelles ou pour générer un revenu.
+502.2 Événements assurés
+La couverture d’assurance s’applique lorsque le véhicule assuré n’est pas en état de marche en raison d’un défaut technique ou d’un accident ou qu’il a été volé.
+502.3 Prestations d’assurance
+502.3.1 Service de dépannage
+Les prestations incluent : le transport du véhicule assuré de la personne assurée concernée et, si souhaité, du cycle, du cyclomoteur ou d’un véhicule équivalent d’une personne voyageant avec l’assuré, jusqu’à la destination; l’organisation et la prise en charge des frais du transport de la personne assurée concernée et, si cela est souhaité, d’une personne voyageant avec l’assuré, jusqu’à la destination. Les mêmes prestations sont prises en charge pour les enfants et les animaux domestiques transportés dans la remorque par la personne assurée concernée. Si le lieu de la panne ou de l’accident est inaccessible en voiture, la personne assurée doit se rendre avec le véhicule dans un lieu auquel le dépanneur peut accéder avec son véhicule sans enfreindre la loi sur la circulation routière. Le conducteur doit être présent jusqu’au chargement de la chose assurée sur le véhicule de dépannage. Il en va de même pour une personne voyageant avec l’assuré et les enfants et les animaux domestiques transportés dans la remorque, dès lors que la prestation précitée doit aussi être fournie.
+502.3.2 Frais supplémentaires
+La prise en charge des frais suivants pour la personne assurée concernée et une personne voyageant avec l’assuré jusqu’à CHF 1’000 max., pour l’organisation par ses propres moyens du transport du véhicule assuré et du cycle, du cyclomoteur ou d’un véhicule équivalent de l’accompagnant en transports publics ou en taxi jusqu’à la destination; l’organisation par ses propres moyens du voyage retour ou de la poursuite du voyage en transports publics ou en taxi jusqu’à la destination. Les mêmes prestations sont prises en charge pour les enfants et les animaux domestiques transportés dans la remorque par la personne assurée concernée; les prestations déjà réservées, mais non utilisées pour le séjour au lieu de destination de la journée pour deux nuits tout au plus; l’hébergement nécessaire pendant la durée de la réparation du véhicule assuré ou jusqu’à l’organisation d’un remplacement.
+502.3.3 Destination
+Le conducteur de la chose assurée peut choisir l’un des lieux suivants comme destination : le lieu de départ du jour; le lieu de destination du jour; un atelier de son choix, qui se trouve à la même distance en kilomètres du lieu de l’événement que le lieu de départ du jour ou le lieu de destination du jour. La destination doit être la même pour la personne assurée concernée, le véhicule assuré et une personne voyageant avec l’assuré et son cycle, cyclomoteur ou véhicule équivalent.
+Art. 503 Responsabilité liée aux prestations fournies
+Les prestations fournies/l’organisation ont/a lieu par la commande de la personne assurée et peuvent/peut varier en fonction des conditions locales à l’étranger. Zurich n’assume aucune responsabilité pour des dommages causés par des prestataires mandatés.
+Art. 504 Exclusions
+Ne sont pas assurés les cas de sinistre liés à des accidents de la circulation au cours desquels le conducteur présente un taux d’alcoolémie de 1,6‰ (valeur minimale) ou plus ou est en incapacité de conduire parce qu’il se trouve sous l’influence de médicaments aux effets narcotiques ou de stupéfiants. Lorsqu’il n’a pas été procédé à une prise de sang mais à un contrôle au moyen de l’éthylotest, l’exclusion de couverture est de même applicable en cas de concentration d’alcool dans l’air expiré de 0,80mg/l ou plus; causés par une infraction particulièrement importante de la limite de vitesse autorisée, un dépassement téméraire ou une participation à des courses de vitesse illicites avec des véhicules automobiles au sens de l’art. 90 al. 3 LCR.</t>
+  </si>
+  <si>
+    <t>Protection juridique voyage à l’étranger
+Les dispositions communes selon les articles 1–11 sont également applicables en complément aux dispositions suivantes :
+Art. 600 Validité temporelle
+L’assurance couvre les cas d’assurance qui surviennent pendant la durée du contrat, pour autant que la protection juridique soit également nécessaire pendant la durée du contrat. La couverture n’est pas accordée lorsqu’un cas est annoncé après l’annulation de la police ou la cessation de l’assurance de protection juridique.
+Art. 601 Validité territoriale
+L’assurance est valable dans le monde entier pour des événements qui se produisent lors de voyages hors de la Suisse et de la Principauté de Liechtenstein.
+Art. 602 Domaines juridiques assurés
+La couverture d’assurance s’applique aux domaines juridiques décrits ci-après (liste exhaustive) :
+602.1 Droit des dommages-intérêts, plainte et aide aux victimes : Exercice de prétentions en dommages-intérêts extra-contractuelles (y compris dans le cadre de la loi fédérale sur l’aide aux victimes) d’une personne assurée pour dégâts matériels et dommages corporels (lésions corporelles/homicide) ainsi que pour des dommages financiers en découlant directement; Implication de l’assuré dans une procédure pénale en tant que partie civile, si une telle intervention est nécessaire pour faire valoir des prétentions.
+602.2 Droit des assurances : Litige avec des institutions d’assurance suisses privées ou publiques suite à un accident ou à un acte de violence criminelle à l’étranger.
+602.3 Défense pénale : Sauvegarde du droit lors d’une procédure pénale engagée contre les personnes assurées suite à une accusation de violation par négligence des dispositions pénales, de même qu’en cas de procédure pénale et pénale-administrative engagée contre l’assuré concernant un accident de la circulation ou une infraction aux règles de la circulation routière.
+602.4 Retrait de permis : Sauvegarde des intérêts juridiques d’une personne assurée lors de procédures devant les autorités administratives suisses concernant le retrait du permis de conduire suite à une violation des règles de circulation à l’étranger.
+602.5 Autre droit des contrats : Sauvegarde des intérêts juridiques d’une personne assurée lors de litiges découlant des contrats suivants (liste exhaustive). Pour tout litige inférieur ou égal à CHF 500, il n’existe qu’un droit à un renseignement juridique unique fourni par Orion : location, prêt et consignation d’un bien meuble à l’étranger; contrat de transport et d’acheminement des bagages et/ou d’un véhicule automobile à l’étranger ainsi que pour des transports en Suisse à la suite d’une impossibilité d’utiliser le véhicule à moteur; réparation d’un véhicule automobile pendant un voyage à l’étranger; contrats concernant les voyages forfaitaires à l’étranger (y compris contrats avec des écoles de langues étrangères), location d’un véhicule automobile pour un voyage à l’étranger ou location temporaire d’un appartement de vacances à l’étranger pour une durée de six mois au maximum (indépendamment du lieu de réservation – même si le for se trouve devant les tribunaux suisses ou liechtensteinois).
+602.6 Droit des patients : Litiges, en tant que patient à l’étranger lors de traitements médicaux d’urgence, avec des médecins, hôpitaux et autres institutions médicales (Est considéré comme une «urgence» lorsqu’au cours d’un séjour temporaire à l’étranger, des personnes assurées ont besoin d’un traitement médical et qu’un voyage de retour en Suisse est contre-indiqué. N’est pas considéré comme une «urgence» lorsque les personnes assurées se rendent à l’étranger dans le but de suivre ce traitement.)
+602.7 Droits réels : Litiges découlant de la propriété, de la possession ou d’autres droits réels liés à des biens meubles et des animaux.
+Art. 603 Survenance d’un cas d’assurance
+Un cas est réputé réalisé :
+Droit des dommages-intérêts : Lorsque le dommage a été causé;
+Droit pénal : Lorsqu’une infraction aux dispositions pénales a été effectivement ou prétendument commise pour la première fois;
+Droit des assurances : En cas de dommages corporels: lorsque se produit la première atteinte à la santé entraînant une incapacité de travail ou une invalidité; Pour les autres dommages: lorsque se produit la première fois l’événement qui déclenche le droit aux prestations auprès de l’assurance; Dans tous les autres cas: lorsque la violation initiale de prescriptions légales ou d’obligations contractuelles a été effectivement ou prétendument commise, à moins que l’assuré puisse déjà auparavant déceler que des différends juridiques pourraient survenir. Le cas échéant, le moment où l’assuré pouvait raisonnablement le déceler est déterminant.
+Dans tous les autres cas : Lorsque la violation initiale de prescriptions légales ou d’obligations contractuelles a été effectivement ou prétendument commise, à moins que l’assuré puisse déjà auparavant déceler que des différends juridiques pourraient survenir. Le cas échéant, le moment où l’assuré pouvait le déceler est déterminant.
+Art. 604 Prestations d’assurance
+Dans les cas assurés, jusqu’à concurrence de CHF 500’000 par événement survenu en Europe ou jusqu’à concurrence de CHF 100’000 par événement survenu hors d’Europe, Orion prend en charge les prestations suivantes :
+le traitement de ces cas d’assurance par Orion;
+les frais d’avocat, d’assistance en cas de procès ou d’un médiateur ainsi qu’en dérogation à l’art.607.2 les frais jusqu’à concurrence de CHF 2’000 pour un avocat de la première heure en tant que prévenu dans une procédure pénale pour le premier interrogatoire par la police. En revanche, si l’assuré est accusé d’avoir agi de manière délibérée, il devra rembourser ces frais à Orion;
+les frais d’expertises ordonnées avec l’accord d’Orion ou par un tribunal;
+les émoluments de justice ou les autres frais de procédure mis à la charge de l’assuré, y compris les avances;
+les dépens alloués à la partie adverse et mis à la charge de l’assuré, y compris les sûretés;
+les frais de recouvrement d’une créance revenant à l’assuré à la suite d’un cas assuré, jusqu’à l’obtention d’un acte de défaut de biens provisoire ou définitif, d’une demande de sursis concordataire, d’une commination de faillite ou d’un acte d’insuffisance de gage;
+les avances de cautions pénales après un accident pour éviter le placement de la personne assurée en détention préventive;
+les frais de traduction et de déplacements nécessaires pour une action judiciaire à l’étranger jusqu’à concurrence de CHF 5’000.
+Tous les litiges ayant la même origine ou étant en relation directe ou indirecte avec le même événement sont considérés comme un seul cas assuré. La somme d’assurance n’est octroyée qu’une fois par cas, même si des domaines juridiques différents sont en cause. Les sûretés et les avances sont entièrement imputées sur la somme d’assurance. Elles doivent être remboursées à Orion. Si un événement concerne plusieurs personnes assurées sous un même contrat ou sous des contrats différents, Orion a le droit de limiter les prestations à la défense des intérêts hors procès jusqu’à ce qu’un procès-pilote soit mené par des avocats qu’elle a choisis. Pour toutes les personnes assurées sous le même contrat, les prestations sont en outre additionnées.
+Ne sont pas pris en charge de façon générale :
+les amendes;
+les frais d’analyses d’alcoolémie et de recherche de drogues ordonnées par les autorités administratives en matière de circulation, des frais pour des examens médicaux ou psychologiques ainsi que des mesures d’éducation routière;
+les indemnités;
+les frais et émoluments issus de la première décision pénale concernant les infractions au code de la route (p. ex. ordonnance pénale, prononcé d’amende, etc.) ainsi que des procédures administratives (p. ex. avertissement, retrait de permis, mesures d’éducation routière, etc.). Ces dernières demeurent à la charge de la personne assurée même dans l’éventualité d’un recours;
+les frais et honoraires dont la prise en charge incombe à un tiers ou qui sont à la charge d’un responsable civil ou d’un assureur RC; dans de tels cas, Orion ne verse que des avances;
+les frais et honoraires dans des procédures de faillite et de procédures concordataires ainsi que dans des actions en revendication, en contestation de revendication et en contestation d’états de collocation;
+les frais de traduction et de déplacement.
+### Art. 605 Exclusions
+En complément à l’art. 5, sont de plus exclus de l’assurance :
+- Tous les domaines juridiques qui ne sont pas expressément mentionnés comme étant assurés sous l’art. 602.
+- Les cas où le conducteur utilise un véhicule qui n’est pas admis à la circulation routière, n’est pas autorisé à conduire le véhicule, n’est pas en possession d’un permis de conduire valable ou conduit un véhicule qui n’est pas muni de plaques de contrôle valables.
+- Les cas en qualité de propriétaire/détenteur de véhicules utilisés à titre professionnel (des recettes sont constamment générées sur les courses), tels que taxis, bus, véhicules de livraison, camions de sociétés de transport, voitures d’auto-école, etc.
+- Les cas liés à l’exercice de prétentions en dommages-intérêts en cas de conduite de véhicules tiers pour des dommages occasionnés à ces véhicules (p. ex. véhicules d’entreprise).
+- Les cas liés à l’inculpation de violation des règles de la circulation régissant l’arrêt ou le stationnement des véhicules (arrêt, stationnement interdits, etc.).
+- Les cas liés à la récupération du permis de conduire retiré par une décision ayant force de chose jugée.
+- Les cas d’inculpation en raison d’un dépassement de la vitesse maximale autorisée à partir de 30 km/h en zone urbanisée, à partir de 40 km/h hors localité et sur semi-autoroutes ainsi qu’à partir de 50 km/h sur autoroutes.
+- Les cas liés aux événements suivants lors de récidive : l’inculpation pour conduite en état d’ébriété, le refus de se soumettre à une analyse du sang ainsi que la consommation de stupéfiants.
+- Les cas liés à l’assuré en sa qualité de propriétaire, détenteur ou conducteur d’aéronefs.
+- Les litiges contractuels liés à des véhicules nautiques avec un prix de catalogue supérieur à CHF 150’000.
+- Les litiges contractuels et autres liés à toute activité professionnelle ou lucrative indépendante (même partielle) ainsi que les actes préparatoires y afférents (cette exclusion ne s’applique pas aux événements liés à l’utilisation de moyens de transports).
+- La défense contre des prétentions en dommages-intérêts extra-contractuelles formulées par des tiers.
+- Les litiges résultant de la participation à des rixes et des bagarres.
+- Les cas liés à des atteintes à l’honneur.
+- Les cas à l’encontre d’un autre assuré par le présent contrat, ou de son assurance responsabilité civile (cette exclusion ne s’applique pas au preneur d’assurance lui-même).
+- Les litiges entre les partenaires en concubinage ou vivant en communauté d’habitation, époux et partenaires dans le cadre d’un partenariat enregistré.
+- Les cas de protection juridique en relation avec l’encaissement de créances non contestées.
+- Les cas découlant du droit des poursuites pour dettes et faillites (les mesures d’encaissement découlant des cas assurés restent couvertes).
+- Les cas opposés à Orion, ses organes et collaborateurs ainsi qu’aux avocats auxquels Orion a recours dans un cas assuré.
+### Art. 606 Réductions des prestations
+Orion renonce expressément au droit qui lui est conféré par la loi de réduire ses prestations en cas de sinistre causé par une faute grave, sauf en cas de condamnation ayant force de chose jugée pour conduite sous l’influence de l’alcool, de médicaments ou de drogues ainsi qu’en cas de refus de se soumettre à une analyse du sang.
+### Art. 607 Gestion d’un cas juridique
+**607.1 Généralités**  
+Lorsque se produit un cas d’assurance pour lequel un assuré entend solliciter les services d’Orion, il doit l’en aviser immédiatement par écrit ou dans une autre forme permettant d’en établir la preuve par un texte.
+**607.2 Marche à suivre**  
+Orion détermine la marche à suivre conformément aux intérêts de l’assuré. Elle conduit, le cas échéant, les pourparlers en vue d’un règlement amiable du cas et propose dans les cas appropriés une médiation. La décision de recourir à un avocat ou à un médiateur ainsi que de procéder à une expertise est du ressort d’Orion. Elle peut limiter la garantie de prise en charge quant au contenu et quant à la somme. L’assuré s’engage à ne pas mandater d’avocat sans avoir obtenu au préalable le consentement écrit d’Orion. Si l’assuré mandate un avocat, respectivement un représentant de procès, un expert ou un médiateur avant la déclaration du cas à Orion, les frais survenus avant la déclaration du cas à Orion ne sont assurés que jusqu’à concurrence de CHF 300. Pour autant que rien d’autre ne soit convenu, Orion fera le décompte avec l’avocat (y compris en cas de procédure judiciaire) selon ses charges. Si l’assuré convient avec l’avocat d’une prime en cas de succès, celle-ci n’est pas prise en charge par Orion.
+**607.3 Prélèvement de la valeur de litige**  
+Orion se réserve le droit, en lieu et place de la prise en charge des frais sur la base de l’art. 604, de verser à l’assuré une indemnité pour le dommage subi. Celle-ci sera allouée en fonction de la valeur litigieuse et tiendra compte des risques de procédure et d’encaissement.
+**607.4 Choix de l’avocat**  
+Orion accorde à l’assuré le libre choix de l’avocat lorsqu’un tel représentant doit être mandaté en vue d’une action judiciaire civile ou administrative, ainsi qu’en cas de conflit d’intérêts. Orion se réserve le droit de refuser l’avocat proposé par l’assuré. Celui-ci peut alors proposer trois autres mandataires de cabinets différents établis au for de l’action judiciaire, parmi lesquels Orion choisira celui chargé du cas. Ceci vaut même si l’assuré avait le libre choix du mandataire ou si Orion avait consenti à mandater un représentant pour d’autres raisons. Le refus d’un avocat ne doit pas être justifié. En cas de changement de mandataire par l’assuré, celui-ci devra prendre en charge les frais supplémentaires qui en résultent.
+**607.5 Renseignements et procurations**  
+L’assuré ou son conseil doit fournir à Orion les renseignements et procurations nécessaires. Toutes les pièces en rapport avec le cas, tels que procès-verbaux d’amende, citations à comparaître, jugements, échanges de lettres, etc. doivent être transmises immédiatement à Orion. Si un avocat est mandaté, l’assuré doit l’autoriser à informer Orion du déroulement du cas et en particulier à mettre à sa disposition les pièces lui permettant d’examiner la couverture d’assurance ou les chances de succès d’un procès.
+**607.6 Transactions**  
+L’assuré ne peut conclure des transactions comportant des obligations pour Orion qu’avec l’accord de cette dernière.
+**607.7 Indemnités de procédure et dépens alloués à la partie adverse**  
+Les indemnités judiciaires et dépens alloués à l’assuré (judiciairement ou extrajudiciairement) reviennent à Orion jusqu’à concurrence des prestations fournies.
+### Art. 608 Divergences d’opinion
+En cas de divergences d’opinions concernant la marche à suivre dans un cas d’assurance couvert ou concernant les chances de succès du cas d’assurance, Orion motive immédiatement par écrit ou dans une autre forme permettant d’en établir la preuve par un texte sa position juridique et informe en même temps l’assuré de son droit de requérir dans les 20 jours une procédure arbitrale. S’il ne requiert pas la procédure arbitrale pendant ce délai, il est réputé y renoncer. À compter de la réception du refus, l’assuré devra prendre lui-même toutes les mesures nécessaires pour la défense de ses intérêts. Orion n’est pas responsable des conséquences des erreurs commises dans la défense des intérêts et, en particulier, de l’inobservation des délais. Les coûts de cette procédure arbitrale sont payables d’avance par les parties à raison de moitié chacune et seront à la charge de la partie qui succombe. Si une partie omet de verser l’avance de frais, elle est réputée reconnaître la position juridique de la partie adverse.
+Les parties choisissent d’un commun accord un arbitre unique. La procédure se limitera à un unique échange d’écriture comprenant les demandes fondées des parties et leurs moyens de preuve, sur la base desquels l’arbitre statuera. Pour le surplus, les dispositions du code de procédure civile (CPC).
+Si, en cas de refus de l’obligation de verser des prestations, l’assuré engage un procès à ses frais et obtient un jugement qui lui est plus favorable que la solution motivée sous forme écrite par Orion ou que le résultat de la procédure arbitrale, Orion prend à sa charge les frais ainsi encourus, comme si elle l’avait approuvé.</t>
+  </si>
+  <si>
+    <t>Art. 600, 601, 602, 603, 604, 605, 606, 607, 608</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1671,6 +2418,20 @@
       <color theme="5" tint="-0.499984740745262"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1719,7 +2480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1742,6 +2503,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2048,24 +2818,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2088,7 +2858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2109,7 +2879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="84" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2130,7 +2900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="345" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2151,7 +2921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="42" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2172,7 +2942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="252" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2193,7 +2963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="168" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2214,7 +2984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="126" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2235,7 +3005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="371" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2258,7 +3028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="258" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="332" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2281,7 +3051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="331.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2304,7 +3074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="352.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2327,7 +3097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="331.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2350,7 +3120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="352.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2373,7 +3143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2396,7 +3166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2419,7 +3189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="321" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2442,7 +3212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="331.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2465,7 +3235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -2482,7 +3252,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" ht="279" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="358" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>20</v>
       </c>
@@ -2502,7 +3272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>21</v>
       </c>
@@ -2525,7 +3295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>22</v>
       </c>
@@ -2548,7 +3318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>23</v>
       </c>
@@ -2569,7 +3339,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>24</v>
       </c>
@@ -2590,7 +3360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>25</v>
       </c>
@@ -2611,7 +3381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>26</v>
       </c>
@@ -2632,7 +3402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>27</v>
       </c>
@@ -2653,7 +3423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>28</v>
       </c>
@@ -2674,7 +3444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="363" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>29</v>
       </c>
@@ -2695,7 +3465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="363" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>30</v>
       </c>
@@ -2716,7 +3486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="363" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>31</v>
       </c>
@@ -2737,7 +3507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>32</v>
       </c>
@@ -2758,7 +3528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="154" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>33</v>
       </c>
@@ -2779,7 +3549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="293" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>34</v>
       </c>
@@ -2797,6 +3567,398 @@
         <v>55</v>
       </c>
       <c r="G34" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="3">
+        <v>30</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="3">
+        <v>28</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="3">
+        <v>29</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="3">
+        <v>27</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0</v>
+      </c>
+      <c r="E39" s="11"/>
+      <c r="F39" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="160" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="F40" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0</v>
+      </c>
+      <c r="E45" s="11"/>
+      <c r="F45" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="11">
+        <v>0</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="11">
+        <v>31</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="11">
+        <v>32</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="320" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" s="11">
+        <v>33</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="11">
+        <v>34</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" s="11">
+        <v>35</v>
+      </c>
+      <c r="E54" s="11"/>
+      <c r="F54" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="11">
+        <v>36</v>
+      </c>
+      <c r="E55" s="11"/>
+      <c r="F55" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="B56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="11">
+        <v>37</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="10" t="s">
         <v>10</v>
       </c>
     </row>
